--- a/Code/Results/Cases/Case_3_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_49/res_line/pl_mw.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.566169368727003</v>
+        <v>2.566169368726833</v>
       </c>
       <c r="C2">
-        <v>0.6839812461994086</v>
+        <v>0.6839812461993802</v>
       </c>
       <c r="D2">
-        <v>0.01048072053485161</v>
+        <v>0.01048072053486493</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.23454549063888</v>
+        <v>1.234545490638837</v>
       </c>
       <c r="G2">
         <v>0.9218536113941269</v>
       </c>
       <c r="H2">
-        <v>0.5953315808206412</v>
+        <v>0.595331580820627</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2831273270865253</v>
+        <v>0.2831273270865324</v>
       </c>
       <c r="L2">
-        <v>0.8658613134848707</v>
+        <v>0.8658613134848778</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.222377052175261</v>
+        <v>2.222377052175204</v>
       </c>
       <c r="C3">
-        <v>0.5964200363728196</v>
+        <v>0.596420036372848</v>
       </c>
       <c r="D3">
-        <v>0.0115350134307155</v>
+        <v>0.01153501343072705</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.102649756129338</v>
+        <v>1.10264975612931</v>
       </c>
       <c r="G3">
-        <v>0.828876733332649</v>
+        <v>0.8288767333326419</v>
       </c>
       <c r="H3">
-        <v>0.5542924863286132</v>
+        <v>0.5542924863286274</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0.24612432639492</v>
       </c>
       <c r="L3">
-        <v>0.7473929263090682</v>
+        <v>0.747392926309054</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.012896519035166</v>
+        <v>2.012896519035195</v>
       </c>
       <c r="C4">
-        <v>0.5430211176871467</v>
+        <v>0.5430211176873172</v>
       </c>
       <c r="D4">
-        <v>0.0122105357239537</v>
+        <v>0.01221053572407538</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.024730808200658</v>
+        <v>1.024730808200644</v>
       </c>
       <c r="G4">
         <v>0.7742572513072048</v>
       </c>
       <c r="H4">
-        <v>0.5309361638941894</v>
+        <v>0.5309361638942036</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2240131048602336</v>
+        <v>0.2240131048602478</v>
       </c>
       <c r="L4">
-        <v>0.6757498948751746</v>
+        <v>0.6757498948751604</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.927859067756117</v>
+        <v>1.927859067755975</v>
       </c>
       <c r="C5">
-        <v>0.5213312701775976</v>
+        <v>0.5213312701776545</v>
       </c>
       <c r="D5">
-        <v>0.01249239082253872</v>
+        <v>0.01249239082246856</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9936736453529988</v>
+        <v>0.9936736453529846</v>
       </c>
       <c r="G5">
         <v>0.7525606933836926</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2151371436587084</v>
+        <v>0.2151371436586871</v>
       </c>
       <c r="L5">
         <v>0.6467911829638879</v>
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.913756312613145</v>
+        <v>1.913756312613174</v>
       </c>
       <c r="C6">
         <v>0.5177333762515275</v>
       </c>
       <c r="D6">
-        <v>0.01253957589125143</v>
+        <v>0.0125395758912541</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>0.7489902471564207</v>
       </c>
       <c r="H6">
-        <v>0.520356752011125</v>
+        <v>0.5203567520110894</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.213670909892322</v>
+        <v>0.2136709098923362</v>
       </c>
       <c r="L6">
-        <v>0.6419957963885352</v>
+        <v>0.6419957963885139</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.011748445289413</v>
+        <v>2.011748445289385</v>
       </c>
       <c r="C7">
-        <v>0.5427283411392807</v>
+        <v>0.5427283411392239</v>
       </c>
       <c r="D7">
-        <v>0.01221431093403158</v>
+        <v>0.01221431093397207</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.024309240133604</v>
+        <v>1.024309240133618</v>
       </c>
       <c r="G7">
-        <v>0.7739624464151902</v>
+        <v>0.7739624464151831</v>
       </c>
       <c r="H7">
-        <v>0.530811853265206</v>
+        <v>0.5308118532651989</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2238928791841275</v>
+        <v>0.2238928791841204</v>
       </c>
       <c r="L7">
-        <v>0.6753584401829542</v>
+        <v>0.6753584401829329</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,10 +643,10 @@
         <v>2.447247235984491</v>
       </c>
       <c r="C8">
-        <v>0.6537014386842941</v>
+        <v>0.6537014386842657</v>
       </c>
       <c r="D8">
-        <v>0.0108380634718932</v>
+        <v>0.01083806347181859</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2702306805196955</v>
+        <v>0.2702306805197097</v>
       </c>
       <c r="L8">
-        <v>0.8247609131243081</v>
+        <v>0.8247609131242939</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,10 +681,10 @@
         <v>3.317898657665467</v>
       </c>
       <c r="C9">
-        <v>0.8752569224159004</v>
+        <v>0.8752569224155877</v>
       </c>
       <c r="D9">
-        <v>0.008389510276378687</v>
+        <v>0.008389510276488821</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>1.137853978937613</v>
       </c>
       <c r="H9">
-        <v>0.695305150784634</v>
+        <v>0.6953051507846268</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3668571177127689</v>
+        <v>0.3668571177127546</v>
       </c>
       <c r="L9">
-        <v>1.128417986200631</v>
+        <v>1.128417986200638</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.97376164932524</v>
+        <v>3.973761649325411</v>
       </c>
       <c r="C10">
-        <v>1.042077404226717</v>
+        <v>1.042077404226745</v>
       </c>
       <c r="D10">
-        <v>0.006786687396115099</v>
+        <v>0.006786687395987201</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -731,7 +731,7 @@
         <v>1.818118500900255</v>
       </c>
       <c r="G10">
-        <v>1.338821896941198</v>
+        <v>1.338821896941184</v>
       </c>
       <c r="H10">
         <v>0.7925459232823471</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4428107726478459</v>
+        <v>0.4428107726478245</v>
       </c>
       <c r="L10">
-        <v>1.361111010986974</v>
+        <v>1.36111101098696</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.277194873518908</v>
+        <v>4.277194873519022</v>
       </c>
       <c r="C11">
-        <v>1.119268090002066</v>
+        <v>1.119268090001924</v>
       </c>
       <c r="D11">
-        <v>0.006112078346922623</v>
+        <v>0.006112078346816041</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.951912665159014</v>
+        <v>1.951912665159057</v>
       </c>
       <c r="G11">
-        <v>1.435392573202122</v>
+        <v>1.435392573202137</v>
       </c>
       <c r="H11">
-        <v>0.8403931419057002</v>
+        <v>0.8403931419057074</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0.4788164602447864</v>
       </c>
       <c r="L11">
-        <v>1.469845392801645</v>
+        <v>1.469845392801673</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,10 +795,10 @@
         <v>4.392974167761167</v>
       </c>
       <c r="C12">
-        <v>1.148725777567677</v>
+        <v>1.148725777567705</v>
       </c>
       <c r="D12">
-        <v>0.005865682251880777</v>
+        <v>0.005865682252108151</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -807,10 +807,10 @@
         <v>2.003646768091812</v>
       </c>
       <c r="G12">
-        <v>1.472813522149096</v>
+        <v>1.472813522149067</v>
       </c>
       <c r="H12">
-        <v>0.8591043539775569</v>
+        <v>0.8591043539775498</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4926961097879428</v>
+        <v>0.4926961097879499</v>
       </c>
       <c r="L12">
-        <v>1.511510427723323</v>
+        <v>1.511510427723337</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.367997563176971</v>
+        <v>4.367997563176914</v>
       </c>
       <c r="C13">
-        <v>1.142370740737022</v>
+        <v>1.142370740736908</v>
       </c>
       <c r="D13">
-        <v>0.005918323216407728</v>
+        <v>0.005918323216098642</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.992454925462425</v>
+        <v>1.992454925462397</v>
       </c>
       <c r="G13">
-        <v>1.464714446910179</v>
+        <v>1.464714446910165</v>
       </c>
       <c r="H13">
         <v>0.8550469437615789</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4896953537294522</v>
+        <v>0.489695353729438</v>
       </c>
       <c r="L13">
-        <v>1.502514032234615</v>
+        <v>1.502514032234572</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.286701656206503</v>
+        <v>4.28670165620656</v>
       </c>
       <c r="C14">
-        <v>1.121686790709163</v>
+        <v>1.121686790709532</v>
       </c>
       <c r="D14">
-        <v>0.006091617788767323</v>
+        <v>0.006091617788664294</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.956146565840001</v>
+        <v>1.956146565839987</v>
       </c>
       <c r="G14">
-        <v>1.438453459674591</v>
+        <v>1.438453459674619</v>
       </c>
       <c r="H14">
         <v>0.8419201979929696</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4799532122009467</v>
+        <v>0.4799532122009609</v>
       </c>
       <c r="L14">
-        <v>1.473262919541824</v>
+        <v>1.47326291954181</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.237024240025789</v>
+        <v>4.237024240025733</v>
       </c>
       <c r="C15">
-        <v>1.109048138533751</v>
+        <v>1.109048138533922</v>
       </c>
       <c r="D15">
-        <v>0.006198985935295553</v>
+        <v>0.006198985935103707</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.934050351917222</v>
+        <v>1.934050351917207</v>
       </c>
       <c r="G15">
-        <v>1.422482308574985</v>
+        <v>1.42248230857497</v>
       </c>
       <c r="H15">
-        <v>0.8339591765610592</v>
+        <v>0.8339591765610805</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4740189360100828</v>
+        <v>0.4740189360100757</v>
       </c>
       <c r="L15">
         <v>1.455411943488642</v>
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.954045788444887</v>
+        <v>3.95404578844483</v>
       </c>
       <c r="C16">
-        <v>1.037062328203348</v>
+        <v>1.037062328203376</v>
       </c>
       <c r="D16">
-        <v>0.006831971793485714</v>
+        <v>0.006831971793372027</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.809516310329769</v>
+        <v>1.809516310329755</v>
       </c>
       <c r="G16">
         <v>1.332623592822856</v>
       </c>
       <c r="H16">
-        <v>0.7894977215911183</v>
+        <v>0.7894977215911112</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.44048994410349</v>
+        <v>0.4404899441034971</v>
       </c>
       <c r="L16">
-        <v>1.354069165922979</v>
+        <v>1.354069165922965</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.781846257222071</v>
+        <v>3.781846257222128</v>
       </c>
       <c r="C17">
-        <v>0.9932619566650658</v>
+        <v>0.9932619566649521</v>
       </c>
       <c r="D17">
-        <v>0.007235060661630932</v>
+        <v>0.007235060661431092</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.734867439488056</v>
+        <v>1.734867439488042</v>
       </c>
       <c r="G17">
         <v>1.27889197013215</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4203175497183409</v>
+        <v>0.4203175497183551</v>
       </c>
       <c r="L17">
-        <v>1.292687265141922</v>
+        <v>1.292687265141907</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,16 +1023,16 @@
         <v>3.68326988716592</v>
       </c>
       <c r="C18">
-        <v>0.9681891424162927</v>
+        <v>0.9681891424162643</v>
       </c>
       <c r="D18">
-        <v>0.007471954336626396</v>
+        <v>0.007471954336759623</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.692529894898925</v>
+        <v>1.692529894898911</v>
       </c>
       <c r="G18">
         <v>1.248464222335485</v>
@@ -1061,22 +1061,22 @@
         <v>3.649969896479035</v>
       </c>
       <c r="C19">
-        <v>0.9597193947211053</v>
+        <v>0.9597193947210485</v>
       </c>
       <c r="D19">
-        <v>0.007552995377513305</v>
+        <v>0.007552995377303695</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.678293920744636</v>
+        <v>1.67829392074465</v>
       </c>
       <c r="G19">
         <v>1.238240710451777</v>
       </c>
       <c r="H19">
-        <v>0.7434505649173104</v>
+        <v>0.7434505649172962</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4049885012687326</v>
+        <v>0.4049885012687398</v>
       </c>
       <c r="L19">
-        <v>1.245828095466649</v>
+        <v>1.245828095466635</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.800127732232454</v>
+        <v>3.800127732232284</v>
       </c>
       <c r="C20">
-        <v>0.9979118885778462</v>
+        <v>0.9979118885780167</v>
       </c>
       <c r="D20">
-        <v>0.00719162053776401</v>
+        <v>0.007191620537696508</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.74275103268603</v>
+        <v>1.742751032686002</v>
       </c>
       <c r="G20">
-        <v>1.284561636240028</v>
+        <v>1.284561636240014</v>
       </c>
       <c r="H20">
-        <v>0.765961034778158</v>
+        <v>0.7659610347781651</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4224507756654248</v>
+        <v>0.4224507756654319</v>
       </c>
       <c r="L20">
         <v>1.299193412578362</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.310555217182412</v>
+        <v>4.310555217182582</v>
       </c>
       <c r="C21">
-        <v>1.127755657624448</v>
+        <v>1.127755657624675</v>
       </c>
       <c r="D21">
-        <v>0.006040460196055975</v>
+        <v>0.006040460195823272</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.966780987232013</v>
+        <v>1.966780987232028</v>
       </c>
       <c r="G21">
-        <v>1.446142875666936</v>
+        <v>1.446142875666951</v>
       </c>
       <c r="H21">
         <v>0.8457591321414242</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.649334702369231</v>
+        <v>4.649334702369174</v>
       </c>
       <c r="C22">
-        <v>1.213962998736918</v>
+        <v>1.213962998737259</v>
       </c>
       <c r="D22">
-        <v>0.005341666652608268</v>
+        <v>0.005341666652936006</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.119507838210453</v>
+        <v>2.119507838210467</v>
       </c>
       <c r="G22">
-        <v>1.556772326989048</v>
+        <v>1.556772326989034</v>
       </c>
       <c r="H22">
-        <v>0.9014062875106816</v>
+        <v>0.9014062875106674</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5237033767934278</v>
+        <v>0.5237033767934207</v>
       </c>
       <c r="L22">
-        <v>1.604107943055268</v>
+        <v>1.604107943055254</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,22 +1213,22 @@
         <v>4.467994227947088</v>
       </c>
       <c r="C23">
-        <v>1.167814727836941</v>
+        <v>1.167814727837225</v>
       </c>
       <c r="D23">
-        <v>0.005709264763514632</v>
+        <v>0.005709264763402722</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.037366081832829</v>
+        <v>2.037366081832815</v>
       </c>
       <c r="G23">
         <v>1.497226799045393</v>
       </c>
       <c r="H23">
-        <v>0.8713599569667565</v>
+        <v>0.8713599569667707</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.501730844188522</v>
+        <v>0.5017308441885149</v>
       </c>
       <c r="L23">
-        <v>1.538559048765975</v>
+        <v>1.53855904876599</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,10 +1251,10 @@
         <v>3.791861369239996</v>
       </c>
       <c r="C24">
-        <v>0.9958093190315651</v>
+        <v>0.9958093190315367</v>
       </c>
       <c r="D24">
-        <v>0.007211243858423089</v>
+        <v>0.007211243858511907</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4214859444694028</v>
+        <v>0.4214859444694454</v>
       </c>
       <c r="L24">
         <v>1.296251209660809</v>
@@ -1286,10 +1286,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.07999780520521</v>
+        <v>3.079997805205267</v>
       </c>
       <c r="C25">
-        <v>0.8147400662347479</v>
+        <v>0.8147400662344921</v>
       </c>
       <c r="D25">
         <v>0.009021033182720295</v>
@@ -1301,10 +1301,10 @@
         <v>1.440000186631423</v>
       </c>
       <c r="G25">
-        <v>1.067743216881254</v>
+        <v>1.06774321688124</v>
       </c>
       <c r="H25">
-        <v>0.662258705321257</v>
+        <v>0.6622587053212428</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0.3399608033188031</v>
       </c>
       <c r="L25">
-        <v>1.0448295280911</v>
+        <v>1.044829528091114</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_49/res_line/pl_mw.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.566169368726833</v>
+        <v>2.566169368727003</v>
       </c>
       <c r="C2">
-        <v>0.6839812461993802</v>
+        <v>0.6839812461994086</v>
       </c>
       <c r="D2">
-        <v>0.01048072053486493</v>
+        <v>0.01048072053485161</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.234545490638837</v>
+        <v>1.23454549063888</v>
       </c>
       <c r="G2">
         <v>0.9218536113941269</v>
       </c>
       <c r="H2">
-        <v>0.595331580820627</v>
+        <v>0.5953315808206412</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2831273270865324</v>
+        <v>0.2831273270865253</v>
       </c>
       <c r="L2">
-        <v>0.8658613134848778</v>
+        <v>0.8658613134848707</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.222377052175204</v>
+        <v>2.222377052175261</v>
       </c>
       <c r="C3">
-        <v>0.596420036372848</v>
+        <v>0.5964200363728196</v>
       </c>
       <c r="D3">
-        <v>0.01153501343072705</v>
+        <v>0.0115350134307155</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.10264975612931</v>
+        <v>1.102649756129338</v>
       </c>
       <c r="G3">
-        <v>0.8288767333326419</v>
+        <v>0.828876733332649</v>
       </c>
       <c r="H3">
-        <v>0.5542924863286274</v>
+        <v>0.5542924863286132</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0.24612432639492</v>
       </c>
       <c r="L3">
-        <v>0.747392926309054</v>
+        <v>0.7473929263090682</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.012896519035195</v>
+        <v>2.012896519035166</v>
       </c>
       <c r="C4">
-        <v>0.5430211176873172</v>
+        <v>0.5430211176871467</v>
       </c>
       <c r="D4">
-        <v>0.01221053572407538</v>
+        <v>0.0122105357239537</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.024730808200644</v>
+        <v>1.024730808200658</v>
       </c>
       <c r="G4">
         <v>0.7742572513072048</v>
       </c>
       <c r="H4">
-        <v>0.5309361638942036</v>
+        <v>0.5309361638941894</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2240131048602478</v>
+        <v>0.2240131048602336</v>
       </c>
       <c r="L4">
-        <v>0.6757498948751604</v>
+        <v>0.6757498948751746</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.927859067755975</v>
+        <v>1.927859067756117</v>
       </c>
       <c r="C5">
-        <v>0.5213312701776545</v>
+        <v>0.5213312701775976</v>
       </c>
       <c r="D5">
-        <v>0.01249239082246856</v>
+        <v>0.01249239082253872</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9936736453529846</v>
+        <v>0.9936736453529988</v>
       </c>
       <c r="G5">
         <v>0.7525606933836926</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2151371436586871</v>
+        <v>0.2151371436587084</v>
       </c>
       <c r="L5">
         <v>0.6467911829638879</v>
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.913756312613174</v>
+        <v>1.913756312613145</v>
       </c>
       <c r="C6">
         <v>0.5177333762515275</v>
       </c>
       <c r="D6">
-        <v>0.0125395758912541</v>
+        <v>0.01253957589125143</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>0.7489902471564207</v>
       </c>
       <c r="H6">
-        <v>0.5203567520110894</v>
+        <v>0.520356752011125</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2136709098923362</v>
+        <v>0.213670909892322</v>
       </c>
       <c r="L6">
-        <v>0.6419957963885139</v>
+        <v>0.6419957963885352</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.011748445289385</v>
+        <v>2.011748445289413</v>
       </c>
       <c r="C7">
-        <v>0.5427283411392239</v>
+        <v>0.5427283411392807</v>
       </c>
       <c r="D7">
-        <v>0.01221431093397207</v>
+        <v>0.01221431093403158</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.024309240133618</v>
+        <v>1.024309240133604</v>
       </c>
       <c r="G7">
-        <v>0.7739624464151831</v>
+        <v>0.7739624464151902</v>
       </c>
       <c r="H7">
-        <v>0.5308118532651989</v>
+        <v>0.530811853265206</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2238928791841204</v>
+        <v>0.2238928791841275</v>
       </c>
       <c r="L7">
-        <v>0.6753584401829329</v>
+        <v>0.6753584401829542</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,10 +643,10 @@
         <v>2.447247235984491</v>
       </c>
       <c r="C8">
-        <v>0.6537014386842657</v>
+        <v>0.6537014386842941</v>
       </c>
       <c r="D8">
-        <v>0.01083806347181859</v>
+        <v>0.0108380634718932</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2702306805197097</v>
+        <v>0.2702306805196955</v>
       </c>
       <c r="L8">
-        <v>0.8247609131242939</v>
+        <v>0.8247609131243081</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,10 +681,10 @@
         <v>3.317898657665467</v>
       </c>
       <c r="C9">
-        <v>0.8752569224155877</v>
+        <v>0.8752569224159004</v>
       </c>
       <c r="D9">
-        <v>0.008389510276488821</v>
+        <v>0.008389510276378687</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>1.137853978937613</v>
       </c>
       <c r="H9">
-        <v>0.6953051507846268</v>
+        <v>0.695305150784634</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3668571177127546</v>
+        <v>0.3668571177127689</v>
       </c>
       <c r="L9">
-        <v>1.128417986200638</v>
+        <v>1.128417986200631</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.973761649325411</v>
+        <v>3.97376164932524</v>
       </c>
       <c r="C10">
-        <v>1.042077404226745</v>
+        <v>1.042077404226717</v>
       </c>
       <c r="D10">
-        <v>0.006786687395987201</v>
+        <v>0.006786687396115099</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -731,7 +731,7 @@
         <v>1.818118500900255</v>
       </c>
       <c r="G10">
-        <v>1.338821896941184</v>
+        <v>1.338821896941198</v>
       </c>
       <c r="H10">
         <v>0.7925459232823471</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4428107726478245</v>
+        <v>0.4428107726478459</v>
       </c>
       <c r="L10">
-        <v>1.36111101098696</v>
+        <v>1.361111010986974</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.277194873519022</v>
+        <v>4.277194873518908</v>
       </c>
       <c r="C11">
-        <v>1.119268090001924</v>
+        <v>1.119268090002066</v>
       </c>
       <c r="D11">
-        <v>0.006112078346816041</v>
+        <v>0.006112078346922623</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.951912665159057</v>
+        <v>1.951912665159014</v>
       </c>
       <c r="G11">
-        <v>1.435392573202137</v>
+        <v>1.435392573202122</v>
       </c>
       <c r="H11">
-        <v>0.8403931419057074</v>
+        <v>0.8403931419057002</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0.4788164602447864</v>
       </c>
       <c r="L11">
-        <v>1.469845392801673</v>
+        <v>1.469845392801645</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,10 +795,10 @@
         <v>4.392974167761167</v>
       </c>
       <c r="C12">
-        <v>1.148725777567705</v>
+        <v>1.148725777567677</v>
       </c>
       <c r="D12">
-        <v>0.005865682252108151</v>
+        <v>0.005865682251880777</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -807,10 +807,10 @@
         <v>2.003646768091812</v>
       </c>
       <c r="G12">
-        <v>1.472813522149067</v>
+        <v>1.472813522149096</v>
       </c>
       <c r="H12">
-        <v>0.8591043539775498</v>
+        <v>0.8591043539775569</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4926961097879499</v>
+        <v>0.4926961097879428</v>
       </c>
       <c r="L12">
-        <v>1.511510427723337</v>
+        <v>1.511510427723323</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.367997563176914</v>
+        <v>4.367997563176971</v>
       </c>
       <c r="C13">
-        <v>1.142370740736908</v>
+        <v>1.142370740737022</v>
       </c>
       <c r="D13">
-        <v>0.005918323216098642</v>
+        <v>0.005918323216407728</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.992454925462397</v>
+        <v>1.992454925462425</v>
       </c>
       <c r="G13">
-        <v>1.464714446910165</v>
+        <v>1.464714446910179</v>
       </c>
       <c r="H13">
         <v>0.8550469437615789</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.489695353729438</v>
+        <v>0.4896953537294522</v>
       </c>
       <c r="L13">
-        <v>1.502514032234572</v>
+        <v>1.502514032234615</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.28670165620656</v>
+        <v>4.286701656206503</v>
       </c>
       <c r="C14">
-        <v>1.121686790709532</v>
+        <v>1.121686790709163</v>
       </c>
       <c r="D14">
-        <v>0.006091617788664294</v>
+        <v>0.006091617788767323</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.956146565839987</v>
+        <v>1.956146565840001</v>
       </c>
       <c r="G14">
-        <v>1.438453459674619</v>
+        <v>1.438453459674591</v>
       </c>
       <c r="H14">
         <v>0.8419201979929696</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4799532122009609</v>
+        <v>0.4799532122009467</v>
       </c>
       <c r="L14">
-        <v>1.47326291954181</v>
+        <v>1.473262919541824</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.237024240025733</v>
+        <v>4.237024240025789</v>
       </c>
       <c r="C15">
-        <v>1.109048138533922</v>
+        <v>1.109048138533751</v>
       </c>
       <c r="D15">
-        <v>0.006198985935103707</v>
+        <v>0.006198985935295553</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.934050351917207</v>
+        <v>1.934050351917222</v>
       </c>
       <c r="G15">
-        <v>1.42248230857497</v>
+        <v>1.422482308574985</v>
       </c>
       <c r="H15">
-        <v>0.8339591765610805</v>
+        <v>0.8339591765610592</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4740189360100757</v>
+        <v>0.4740189360100828</v>
       </c>
       <c r="L15">
         <v>1.455411943488642</v>
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.95404578844483</v>
+        <v>3.954045788444887</v>
       </c>
       <c r="C16">
-        <v>1.037062328203376</v>
+        <v>1.037062328203348</v>
       </c>
       <c r="D16">
-        <v>0.006831971793372027</v>
+        <v>0.006831971793485714</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.809516310329755</v>
+        <v>1.809516310329769</v>
       </c>
       <c r="G16">
         <v>1.332623592822856</v>
       </c>
       <c r="H16">
-        <v>0.7894977215911112</v>
+        <v>0.7894977215911183</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4404899441034971</v>
+        <v>0.44048994410349</v>
       </c>
       <c r="L16">
-        <v>1.354069165922965</v>
+        <v>1.354069165922979</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.781846257222128</v>
+        <v>3.781846257222071</v>
       </c>
       <c r="C17">
-        <v>0.9932619566649521</v>
+        <v>0.9932619566650658</v>
       </c>
       <c r="D17">
-        <v>0.007235060661431092</v>
+        <v>0.007235060661630932</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.734867439488042</v>
+        <v>1.734867439488056</v>
       </c>
       <c r="G17">
         <v>1.27889197013215</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4203175497183551</v>
+        <v>0.4203175497183409</v>
       </c>
       <c r="L17">
-        <v>1.292687265141907</v>
+        <v>1.292687265141922</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,16 +1023,16 @@
         <v>3.68326988716592</v>
       </c>
       <c r="C18">
-        <v>0.9681891424162643</v>
+        <v>0.9681891424162927</v>
       </c>
       <c r="D18">
-        <v>0.007471954336759623</v>
+        <v>0.007471954336626396</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.692529894898911</v>
+        <v>1.692529894898925</v>
       </c>
       <c r="G18">
         <v>1.248464222335485</v>
@@ -1061,22 +1061,22 @@
         <v>3.649969896479035</v>
       </c>
       <c r="C19">
-        <v>0.9597193947210485</v>
+        <v>0.9597193947211053</v>
       </c>
       <c r="D19">
-        <v>0.007552995377303695</v>
+        <v>0.007552995377513305</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.67829392074465</v>
+        <v>1.678293920744636</v>
       </c>
       <c r="G19">
         <v>1.238240710451777</v>
       </c>
       <c r="H19">
-        <v>0.7434505649172962</v>
+        <v>0.7434505649173104</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4049885012687398</v>
+        <v>0.4049885012687326</v>
       </c>
       <c r="L19">
-        <v>1.245828095466635</v>
+        <v>1.245828095466649</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.800127732232284</v>
+        <v>3.800127732232454</v>
       </c>
       <c r="C20">
-        <v>0.9979118885780167</v>
+        <v>0.9979118885778462</v>
       </c>
       <c r="D20">
-        <v>0.007191620537696508</v>
+        <v>0.00719162053776401</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.742751032686002</v>
+        <v>1.74275103268603</v>
       </c>
       <c r="G20">
-        <v>1.284561636240014</v>
+        <v>1.284561636240028</v>
       </c>
       <c r="H20">
-        <v>0.7659610347781651</v>
+        <v>0.765961034778158</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4224507756654319</v>
+        <v>0.4224507756654248</v>
       </c>
       <c r="L20">
         <v>1.299193412578362</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.310555217182582</v>
+        <v>4.310555217182412</v>
       </c>
       <c r="C21">
-        <v>1.127755657624675</v>
+        <v>1.127755657624448</v>
       </c>
       <c r="D21">
-        <v>0.006040460195823272</v>
+        <v>0.006040460196055975</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.966780987232028</v>
+        <v>1.966780987232013</v>
       </c>
       <c r="G21">
-        <v>1.446142875666951</v>
+        <v>1.446142875666936</v>
       </c>
       <c r="H21">
         <v>0.8457591321414242</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.649334702369174</v>
+        <v>4.649334702369231</v>
       </c>
       <c r="C22">
-        <v>1.213962998737259</v>
+        <v>1.213962998736918</v>
       </c>
       <c r="D22">
-        <v>0.005341666652936006</v>
+        <v>0.005341666652608268</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.119507838210467</v>
+        <v>2.119507838210453</v>
       </c>
       <c r="G22">
-        <v>1.556772326989034</v>
+        <v>1.556772326989048</v>
       </c>
       <c r="H22">
-        <v>0.9014062875106674</v>
+        <v>0.9014062875106816</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5237033767934207</v>
+        <v>0.5237033767934278</v>
       </c>
       <c r="L22">
-        <v>1.604107943055254</v>
+        <v>1.604107943055268</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,22 +1213,22 @@
         <v>4.467994227947088</v>
       </c>
       <c r="C23">
-        <v>1.167814727837225</v>
+        <v>1.167814727836941</v>
       </c>
       <c r="D23">
-        <v>0.005709264763402722</v>
+        <v>0.005709264763514632</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.037366081832815</v>
+        <v>2.037366081832829</v>
       </c>
       <c r="G23">
         <v>1.497226799045393</v>
       </c>
       <c r="H23">
-        <v>0.8713599569667707</v>
+        <v>0.8713599569667565</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5017308441885149</v>
+        <v>0.501730844188522</v>
       </c>
       <c r="L23">
-        <v>1.53855904876599</v>
+        <v>1.538559048765975</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,10 +1251,10 @@
         <v>3.791861369239996</v>
       </c>
       <c r="C24">
-        <v>0.9958093190315367</v>
+        <v>0.9958093190315651</v>
       </c>
       <c r="D24">
-        <v>0.007211243858511907</v>
+        <v>0.007211243858423089</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4214859444694454</v>
+        <v>0.4214859444694028</v>
       </c>
       <c r="L24">
         <v>1.296251209660809</v>
@@ -1286,10 +1286,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.079997805205267</v>
+        <v>3.07999780520521</v>
       </c>
       <c r="C25">
-        <v>0.8147400662344921</v>
+        <v>0.8147400662347479</v>
       </c>
       <c r="D25">
         <v>0.009021033182720295</v>
@@ -1301,10 +1301,10 @@
         <v>1.440000186631423</v>
       </c>
       <c r="G25">
-        <v>1.06774321688124</v>
+        <v>1.067743216881254</v>
       </c>
       <c r="H25">
-        <v>0.6622587053212428</v>
+        <v>0.662258705321257</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0.3399608033188031</v>
       </c>
       <c r="L25">
-        <v>1.044829528091114</v>
+        <v>1.0448295280911</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_49/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.566169368727003</v>
+        <v>2.566082006645274</v>
       </c>
       <c r="C2">
-        <v>0.6839812461994086</v>
+        <v>0.6836481733004405</v>
       </c>
       <c r="D2">
-        <v>0.01048072053485161</v>
+        <v>0.01049020036257886</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.23454549063888</v>
+        <v>1.232823560790834</v>
       </c>
       <c r="G2">
-        <v>0.9218536113941269</v>
+        <v>0.2929297734344942</v>
       </c>
       <c r="H2">
-        <v>0.5953315808206412</v>
+        <v>0.6313656726024419</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.5943071641913988</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2831273270865253</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.8658613134848707</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.2831235929630367</v>
+      </c>
+      <c r="M2">
+        <v>0.8658481448532385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.222377052175261</v>
+        <v>2.222326891936063</v>
       </c>
       <c r="C3">
-        <v>0.5964200363728196</v>
+        <v>0.5961443406081912</v>
       </c>
       <c r="D3">
-        <v>0.0115350134307155</v>
+        <v>0.01154078232562927</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.102649756129338</v>
+        <v>1.101125394201688</v>
       </c>
       <c r="G3">
-        <v>0.828876733332649</v>
+        <v>0.2594278913395911</v>
       </c>
       <c r="H3">
-        <v>0.5542924863286132</v>
+        <v>0.5721629863119375</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.5533770778633098</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.24612432639492</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.7473929263090682</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.2461219517737874</v>
+      </c>
+      <c r="M3">
+        <v>0.7473860002337886</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.012896519035166</v>
+        <v>2.012866172997633</v>
       </c>
       <c r="C4">
-        <v>0.5430211176871467</v>
+        <v>0.5427796126177782</v>
       </c>
       <c r="D4">
-        <v>0.0122105357239537</v>
+        <v>0.01221389230806835</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.024730808200658</v>
+        <v>1.023324363444317</v>
       </c>
       <c r="G4">
-        <v>0.7742572513072048</v>
+        <v>0.2396450277868141</v>
       </c>
       <c r="H4">
-        <v>0.5309361638941894</v>
+        <v>0.5374892217178129</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.5300859301644394</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2240131048602336</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6757498948751746</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.2240115547256565</v>
+      </c>
+      <c r="M4">
+        <v>0.675745980404578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.927859067756117</v>
+        <v>1.927836133949313</v>
       </c>
       <c r="C5">
-        <v>0.5213312701775976</v>
+        <v>0.5211034803743928</v>
       </c>
       <c r="D5">
-        <v>0.01249239082253872</v>
+        <v>0.01249473288962832</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9936736453529988</v>
+        <v>0.9923145179158723</v>
       </c>
       <c r="G5">
-        <v>0.7525606933836926</v>
+        <v>0.2317610879396028</v>
       </c>
       <c r="H5">
-        <v>0.5218422669556162</v>
+        <v>0.5237420267049586</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.5210182110790882</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2151371436587084</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.6467911829638879</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.2151359312617132</v>
+      </c>
+      <c r="M5">
+        <v>0.6467883179276157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.913756312613145</v>
+        <v>1.913734572318248</v>
       </c>
       <c r="C6">
-        <v>0.5177333762515275</v>
+        <v>0.5175078519038152</v>
       </c>
       <c r="D6">
-        <v>0.01253957589125143</v>
+        <v>0.01254174765666694</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9885565335500388</v>
+        <v>0.987205221952749</v>
       </c>
       <c r="G6">
-        <v>0.7489902471564207</v>
+        <v>0.2304621374396589</v>
       </c>
       <c r="H6">
-        <v>0.520356752011125</v>
+        <v>0.5214813417506079</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.5195370215646804</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.213670909892322</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.6419957963885352</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.2136697537931411</v>
+      </c>
+      <c r="M6">
+        <v>0.6419930956464128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.011748445289413</v>
+        <v>2.011718201773334</v>
       </c>
       <c r="C7">
-        <v>0.5427283411392807</v>
+        <v>0.5424870218656395</v>
       </c>
       <c r="D7">
-        <v>0.01221431093403158</v>
+        <v>0.01221765396091001</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.024309240133604</v>
+        <v>1.022903436343682</v>
       </c>
       <c r="G7">
-        <v>0.7739624464151902</v>
+        <v>0.2395380082224108</v>
       </c>
       <c r="H7">
-        <v>0.530811853265206</v>
+        <v>0.5373023223291966</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.5299619740478789</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2238928791841275</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6753584401829542</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.2238913335921922</v>
+      </c>
+      <c r="M7">
+        <v>0.6753545405498542</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.447247235984491</v>
+        <v>2.447173392462616</v>
       </c>
       <c r="C8">
-        <v>0.6537014386842941</v>
+        <v>0.6533883926691999</v>
       </c>
       <c r="D8">
-        <v>0.0108380634718932</v>
+        <v>0.01084629290071426</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.188384304806448</v>
+        <v>1.186731274682018</v>
       </c>
       <c r="G8">
-        <v>0.8892455305164617</v>
+        <v>0.2812021865867393</v>
       </c>
       <c r="H8">
-        <v>0.5807744893222093</v>
+        <v>0.6105800684990612</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.5797880616211373</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2702306805196955</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.8247609131243081</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.2702274201676289</v>
+      </c>
+      <c r="M8">
+        <v>0.8247500857893186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.317898657665467</v>
+        <v>3.317710221216373</v>
       </c>
       <c r="C9">
-        <v>0.8752569224159004</v>
+        <v>0.8747927605441816</v>
       </c>
       <c r="D9">
-        <v>0.008389510276378687</v>
+        <v>0.008406151425275787</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.538200773014822</v>
+        <v>1.536030014171999</v>
       </c>
       <c r="G9">
-        <v>1.137853978937613</v>
+        <v>0.3701592762770645</v>
       </c>
       <c r="H9">
-        <v>0.695305150784634</v>
+        <v>0.7695202747663359</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.6940339229576509</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3668571177127689</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>1.128417986200631</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.3668501633171459</v>
+      </c>
+      <c r="M9">
+        <v>1.128385554036093</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.97376164932524</v>
+        <v>3.973463125001331</v>
       </c>
       <c r="C10">
-        <v>1.042077404226717</v>
+        <v>1.041492301983993</v>
       </c>
       <c r="D10">
-        <v>0.006786687396115099</v>
+        <v>0.006808621473764376</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.818118500900255</v>
+        <v>1.815537622080768</v>
       </c>
       <c r="G10">
-        <v>1.338821896941198</v>
+        <v>0.4414976332527232</v>
       </c>
       <c r="H10">
-        <v>0.7925459232823471</v>
+        <v>0.898589506508003</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.791050097740964</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4428107726478459</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1.361111010986974</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.4428004438034421</v>
+      </c>
+      <c r="M10">
+        <v>1.361055330183916</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.277194873518908</v>
+        <v>4.276838440323957</v>
       </c>
       <c r="C11">
-        <v>1.119268090002066</v>
+        <v>1.118624872487686</v>
       </c>
       <c r="D11">
-        <v>0.006112078346922623</v>
+        <v>0.006136181109765992</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.951912665159014</v>
+        <v>1.949136155842595</v>
       </c>
       <c r="G11">
-        <v>1.435392573202122</v>
+        <v>0.4756482350061759</v>
       </c>
       <c r="H11">
-        <v>0.8403931419057002</v>
+        <v>0.9607432496315198</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.8387904703173774</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4788164602447864</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1.469845392801645</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.4788043087449836</v>
+      </c>
+      <c r="M11">
+        <v>1.469776837969945</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.392974167761167</v>
+        <v>4.392594458076815</v>
       </c>
       <c r="C12">
-        <v>1.148725777567677</v>
+        <v>1.148060013910566</v>
       </c>
       <c r="D12">
-        <v>0.005865682251880777</v>
+        <v>0.005890567163497451</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.003646768091812</v>
+        <v>2.000794615610644</v>
       </c>
       <c r="G12">
-        <v>1.472813522149096</v>
+        <v>0.4888624549233782</v>
       </c>
       <c r="H12">
-        <v>0.8591043539775569</v>
+        <v>0.9848471662800762</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.8574604166498005</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4926961097879428</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1.511510427723323</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.4926832104718883</v>
+      </c>
+      <c r="M12">
+        <v>1.511436595128117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.367997563176971</v>
+        <v>4.367622930374637</v>
       </c>
       <c r="C13">
-        <v>1.142370740737022</v>
+        <v>1.141709858423894</v>
       </c>
       <c r="D13">
-        <v>0.005918323216407728</v>
+        <v>0.005943041499749668</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.992454925462425</v>
+        <v>1.989619138143098</v>
       </c>
       <c r="G13">
-        <v>1.464714446910179</v>
+        <v>0.4860033334034455</v>
       </c>
       <c r="H13">
-        <v>0.8550469437615789</v>
+        <v>0.9796294476663405</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.8534119319295073</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4896953537294522</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1.502514032234615</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.4896826183363672</v>
+      </c>
+      <c r="M13">
+        <v>1.502441355508381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.286701656206503</v>
+        <v>4.286343336453797</v>
       </c>
       <c r="C14">
-        <v>1.121686790709163</v>
+        <v>1.121041729704359</v>
       </c>
       <c r="D14">
-        <v>0.006091617788767323</v>
+        <v>0.006115785712434985</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.956146565840001</v>
+        <v>1.95336386625543</v>
       </c>
       <c r="G14">
-        <v>1.438453459674591</v>
+        <v>0.4767294883758524</v>
       </c>
       <c r="H14">
-        <v>0.8419201979929696</v>
+        <v>0.9627144655179194</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.8403141484311618</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4799532122009467</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1.473262919541824</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.4799410004408884</v>
+      </c>
+      <c r="M14">
+        <v>1.473193939038339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.237024240025789</v>
+        <v>4.236675729764272</v>
       </c>
       <c r="C15">
-        <v>1.109048138533751</v>
+        <v>1.108412695294987</v>
       </c>
       <c r="D15">
-        <v>0.006198985935295553</v>
+        <v>0.006222811504747128</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.934050351917222</v>
+        <v>1.931299958269889</v>
       </c>
       <c r="G15">
-        <v>1.422482308574985</v>
+        <v>0.4710869381539879</v>
       </c>
       <c r="H15">
-        <v>0.8339591765610592</v>
+        <v>0.9524297995779563</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.8323707580067534</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4740189360100828</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1.455411943488642</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.4740070369325409</v>
+      </c>
+      <c r="M15">
+        <v>1.455345172212347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.954045788444887</v>
+        <v>3.953750872918761</v>
       </c>
       <c r="C16">
-        <v>1.037062328203348</v>
+        <v>1.036480953905567</v>
       </c>
       <c r="D16">
-        <v>0.006831971793485714</v>
+        <v>0.006853758946186339</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.809516310329769</v>
+        <v>1.806948012842227</v>
       </c>
       <c r="G16">
-        <v>1.332623592822856</v>
+        <v>0.4393031210484963</v>
       </c>
       <c r="H16">
-        <v>0.7894977215911183</v>
+        <v>0.8946028640742298</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.7880087737117023</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.44048994410349</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1.354069165922979</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.4404797272893646</v>
+      </c>
+      <c r="M16">
+        <v>1.354014274360253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.781846257222071</v>
+        <v>3.781582068390151</v>
       </c>
       <c r="C17">
-        <v>0.9932619566650658</v>
+        <v>0.9927128961095946</v>
       </c>
       <c r="D17">
-        <v>0.007235060661630932</v>
+        <v>0.007255532960563471</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.734867439488056</v>
+        <v>1.732408359022386</v>
       </c>
       <c r="G17">
-        <v>1.27889197013215</v>
+        <v>0.420265305025012</v>
       </c>
       <c r="H17">
-        <v>0.7631963955620407</v>
+        <v>0.8600580367601651</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.7617671840602327</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4203175497183409</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1.292687265141922</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.4203082809350889</v>
+      </c>
+      <c r="M17">
+        <v>1.292639025581849</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.68326988716592</v>
+        <v>3.68302264982367</v>
       </c>
       <c r="C18">
-        <v>0.9681891424162927</v>
+        <v>0.9676583825747969</v>
       </c>
       <c r="D18">
-        <v>0.007471954336626396</v>
+        <v>0.007491648184518418</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.692529894898925</v>
+        <v>1.690132797665839</v>
       </c>
       <c r="G18">
-        <v>1.248464222335485</v>
+        <v>0.4094725928278109</v>
       </c>
       <c r="H18">
-        <v>0.7484036612790064</v>
+        <v>0.8405076351801597</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.7470083776160124</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4088493629598489</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>1.257648165077583</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.4088406135759826</v>
+      </c>
+      <c r="M18">
+        <v>1.257603540309091</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.649969896479035</v>
+        <v>3.649728280846318</v>
       </c>
       <c r="C19">
-        <v>0.9597193947211053</v>
+        <v>0.9591947848053053</v>
       </c>
       <c r="D19">
-        <v>0.007552995377513305</v>
+        <v>0.007572421976444588</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.678293920744636</v>
+        <v>1.67591767369025</v>
       </c>
       <c r="G19">
-        <v>1.238240710451777</v>
+        <v>0.4058443089420649</v>
       </c>
       <c r="H19">
-        <v>0.7434505649173104</v>
+        <v>0.8339408904470673</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.7420666983375526</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4049885012687326</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1.245828095466649</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.404979923729627</v>
+      </c>
+      <c r="M19">
+        <v>1.245784660303386</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.800127732232454</v>
+        <v>3.799860348674997</v>
       </c>
       <c r="C20">
-        <v>0.9979118885778462</v>
+        <v>0.9973594183282728</v>
       </c>
       <c r="D20">
-        <v>0.00719162053776401</v>
+        <v>0.007212235132619149</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.74275103268603</v>
+        <v>1.740280414096517</v>
       </c>
       <c r="G20">
-        <v>1.284561636240028</v>
+        <v>0.4222753697142849</v>
       </c>
       <c r="H20">
-        <v>0.765961034778158</v>
+        <v>0.8637018903856699</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.7645255097348596</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4224507756654248</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>1.299193412578362</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.4224414087462662</v>
+      </c>
+      <c r="M20">
+        <v>1.299144487246224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.310555217182412</v>
+        <v>4.310192144420739</v>
       </c>
       <c r="C21">
-        <v>1.127755657624448</v>
+        <v>1.1271059649699</v>
       </c>
       <c r="D21">
-        <v>0.006040460196055975</v>
+        <v>0.006064790876049386</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.966780987232013</v>
+        <v>1.963982739161509</v>
       </c>
       <c r="G21">
-        <v>1.446142875666936</v>
+        <v>0.4794454586935615</v>
       </c>
       <c r="H21">
-        <v>0.8457591321414242</v>
+        <v>0.9676667719268579</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.8441445986892973</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4828077530397721</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1.481840740973411</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.4827953891904144</v>
+      </c>
+      <c r="M21">
+        <v>1.4817706863723</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.649334702369231</v>
+        <v>4.648901104522054</v>
       </c>
       <c r="C22">
-        <v>1.213962998736918</v>
+        <v>1.213246568305721</v>
       </c>
       <c r="D22">
-        <v>0.005341666652608268</v>
+        <v>0.005368195408160581</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.119507838210453</v>
+        <v>2.116486207643561</v>
       </c>
       <c r="G22">
-        <v>1.556772326989048</v>
+        <v>0.5184750710396884</v>
       </c>
       <c r="H22">
-        <v>0.9014062875106816</v>
+        <v>1.038963351015227</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.8996699883491175</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5237033767934278</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1.604107943055268</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.5236887076098071</v>
+      </c>
+      <c r="M22">
+        <v>1.604021688103998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.467994227947088</v>
+        <v>4.467599084909352</v>
       </c>
       <c r="C23">
-        <v>1.167814727836941</v>
+        <v>1.167134244113015</v>
       </c>
       <c r="D23">
-        <v>0.005709264763514632</v>
+        <v>0.005734643232197634</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.037366081832829</v>
+        <v>2.034464618765256</v>
       </c>
       <c r="G23">
-        <v>1.497226799045393</v>
+        <v>0.4974780115914541</v>
       </c>
       <c r="H23">
-        <v>0.8713599569667565</v>
+        <v>1.000577915887433</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.869689133179989</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.501730844188522</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1.538559048765975</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.501717443664063</v>
+      </c>
+      <c r="M23">
+        <v>1.53848168669802</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.791861369239996</v>
+        <v>3.791595432224824</v>
       </c>
       <c r="C24">
-        <v>0.9958093190315651</v>
+        <v>0.9952583911605473</v>
       </c>
       <c r="D24">
-        <v>0.007211243858423089</v>
+        <v>0.007231794191470797</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.739185066871187</v>
+        <v>1.736719667162333</v>
       </c>
       <c r="G24">
-        <v>1.281996945414789</v>
+        <v>0.4213661476356236</v>
       </c>
       <c r="H24">
-        <v>0.7647101243773307</v>
+        <v>0.8620535443584032</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.7632774549702148</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4214859444694028</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1.296251209660809</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.4214766219961916</v>
+      </c>
+      <c r="M24">
+        <v>1.296202595013625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.07999780520521</v>
+        <v>3.0798442559053</v>
       </c>
       <c r="C25">
-        <v>0.8147400662347479</v>
+        <v>0.8143182416479817</v>
       </c>
       <c r="D25">
-        <v>0.009021033182720295</v>
+        <v>0.009035540524323871</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.440000186631423</v>
+        <v>1.437973929200965</v>
       </c>
       <c r="G25">
-        <v>1.067743216881254</v>
+        <v>0.3451665550577161</v>
       </c>
       <c r="H25">
-        <v>0.662258705321257</v>
+        <v>0.7246002923808419</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.6610668181751365</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3399608033188031</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>1.0448295280911</v>
+        <v>0.3399549242312574</v>
+      </c>
+      <c r="M25">
+        <v>1.044804030932617</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_49/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.566082006645274</v>
+        <v>2.749506297977121</v>
       </c>
       <c r="C2">
-        <v>0.6836481733004405</v>
+        <v>0.6519268148088884</v>
       </c>
       <c r="D2">
-        <v>0.01049020036257886</v>
+        <v>0.160428969857378</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.232823560790834</v>
+        <v>1.924841755287332</v>
       </c>
       <c r="G2">
-        <v>0.2929297734344942</v>
+        <v>0.0007967674608704454</v>
       </c>
       <c r="H2">
-        <v>0.6313656726024419</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5943071641913988</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.439196901248323</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.7645042931618207</v>
       </c>
       <c r="L2">
-        <v>0.2831235929630367</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8658481448532385</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.7761107206004567</v>
+      </c>
+      <c r="O2">
+        <v>1.142675182280243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.222326891936063</v>
+        <v>2.38149655756024</v>
       </c>
       <c r="C3">
-        <v>0.5961443406081912</v>
+        <v>0.5626715010175189</v>
       </c>
       <c r="D3">
-        <v>0.01154078232562927</v>
+        <v>0.1411225005359285</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.101125394201688</v>
+        <v>1.760541882110687</v>
       </c>
       <c r="G3">
-        <v>0.2594278913395911</v>
+        <v>0.000804268414199909</v>
       </c>
       <c r="H3">
-        <v>0.5721629863119375</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5533770778633098</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3864815115270375</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6613401820143849</v>
       </c>
       <c r="L3">
-        <v>0.2461219517737874</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7473860002337886</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.8279313474876595</v>
+      </c>
+      <c r="O3">
+        <v>1.051706298944737</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.012866172997633</v>
+        <v>2.158635502071718</v>
       </c>
       <c r="C4">
-        <v>0.5427796126177782</v>
+        <v>0.5085567276461234</v>
       </c>
       <c r="D4">
-        <v>0.01221389230806835</v>
+        <v>0.1294232576773879</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.023324363444317</v>
+        <v>1.664043492662231</v>
       </c>
       <c r="G4">
-        <v>0.2396450277868141</v>
+        <v>0.0008089982299168862</v>
       </c>
       <c r="H4">
-        <v>0.5374892217178129</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5300859301644394</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3549002453742673</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.598844603927013</v>
       </c>
       <c r="L4">
-        <v>0.2240115547256565</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.675745980404578</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.861337910623547</v>
+      </c>
+      <c r="O4">
+        <v>0.9986615701960986</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.927836133949313</v>
+        <v>2.068490813016183</v>
       </c>
       <c r="C5">
-        <v>0.5211034803743928</v>
+        <v>0.4866509795313902</v>
       </c>
       <c r="D5">
-        <v>0.01249473288962832</v>
+        <v>0.1246901606391901</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9923145179158723</v>
+        <v>1.625722486583797</v>
       </c>
       <c r="G5">
-        <v>0.2317610879396028</v>
+        <v>0.0008109582445303272</v>
       </c>
       <c r="H5">
-        <v>0.5237420267049586</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5210182110790882</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3422061690536538</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5735603032832728</v>
       </c>
       <c r="L5">
-        <v>0.2151359312617132</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6467883179276157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.8753333295047945</v>
+      </c>
+      <c r="O5">
+        <v>0.9776896278249652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.913734572318248</v>
+        <v>2.053560060643179</v>
       </c>
       <c r="C6">
-        <v>0.5175078519038152</v>
+        <v>0.4830216556778453</v>
       </c>
       <c r="D6">
-        <v>0.01254174765666694</v>
+        <v>0.1239061877474086</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.987205221952749</v>
+        <v>1.619417133751696</v>
       </c>
       <c r="G6">
-        <v>0.2304621374396589</v>
+        <v>0.0008112857085383099</v>
       </c>
       <c r="H6">
-        <v>0.5214813417506079</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5195370215646804</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3401083161804053</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5693720954826986</v>
       </c>
       <c r="L6">
-        <v>0.2136697537931411</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6419930956464128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0.8776798444584095</v>
+      </c>
+      <c r="O6">
+        <v>0.9742444273687809</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.011718201773334</v>
+        <v>2.157417188459419</v>
       </c>
       <c r="C7">
-        <v>0.5424870218656395</v>
+        <v>0.5082607396521155</v>
       </c>
       <c r="D7">
-        <v>0.01221765396091001</v>
+        <v>0.1293592917659652</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.022903436343682</v>
+        <v>1.663522746894287</v>
       </c>
       <c r="G7">
-        <v>0.2395380082224108</v>
+        <v>0.0008090245297160404</v>
       </c>
       <c r="H7">
-        <v>0.5373023223291966</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5299619740478789</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3547283658166407</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5985029073015227</v>
       </c>
       <c r="L7">
-        <v>0.2238913335921922</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6753545405498542</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0.8615251331869587</v>
+      </c>
+      <c r="O7">
+        <v>0.9983762058770438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.447173392462616</v>
+        <v>2.621906781562643</v>
       </c>
       <c r="C8">
-        <v>0.6533883926691999</v>
+        <v>0.6209919556533521</v>
       </c>
       <c r="D8">
-        <v>0.01084629290071426</v>
+        <v>0.1537370734161811</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.186731274682018</v>
+        <v>1.867219367433066</v>
       </c>
       <c r="G8">
-        <v>0.2812021865867393</v>
+        <v>0.0007993288540609328</v>
       </c>
       <c r="H8">
-        <v>0.6105800684990612</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5797880616211373</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4208435371853483</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.7287385405415847</v>
       </c>
       <c r="L8">
-        <v>0.2702274201676289</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8247500857893186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0.7936378252727749</v>
+      </c>
+      <c r="O8">
+        <v>1.110686541010395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.317710221216373</v>
+        <v>3.562658748657554</v>
       </c>
       <c r="C9">
-        <v>0.8747927605441816</v>
+        <v>0.8488555501793087</v>
       </c>
       <c r="D9">
-        <v>0.008406151425275787</v>
+        <v>0.2029992898235236</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.536030014171999</v>
+        <v>2.306375279976521</v>
       </c>
       <c r="G9">
-        <v>0.3701592762770645</v>
+        <v>0.0007812345234647578</v>
       </c>
       <c r="H9">
-        <v>0.7695202747663359</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6940339229576509</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5578403840817288</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.9923557496449149</v>
       </c>
       <c r="L9">
-        <v>0.3668501633171459</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>1.128385554036093</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.6739787949971152</v>
+      </c>
+      <c r="O9">
+        <v>1.356338531020072</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.973463125001331</v>
+        <v>4.280323689368515</v>
       </c>
       <c r="C10">
-        <v>1.041492301983993</v>
+        <v>1.022505091719665</v>
       </c>
       <c r="D10">
-        <v>0.006808621473764376</v>
+        <v>0.2404364441160709</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.815537622080768</v>
+        <v>2.660905983514198</v>
       </c>
       <c r="G10">
-        <v>0.4414976332527232</v>
+        <v>0.0007683978490480365</v>
       </c>
       <c r="H10">
-        <v>0.898589506508003</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.791050097740964</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6646986301770426</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.193392236279948</v>
       </c>
       <c r="L10">
-        <v>0.4428004438034421</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1.361055330183916</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.5956126233241932</v>
+      </c>
+      <c r="O10">
+        <v>1.557149080273192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.276838440323957</v>
+        <v>4.614677420063799</v>
       </c>
       <c r="C11">
-        <v>1.118624872487686</v>
+        <v>1.103396745186046</v>
       </c>
       <c r="D11">
-        <v>0.006136181109765992</v>
+        <v>0.2578287442875364</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.949136155842595</v>
+        <v>2.831080842296643</v>
       </c>
       <c r="G11">
-        <v>0.4756482350061759</v>
+        <v>0.0007626313259490136</v>
       </c>
       <c r="H11">
-        <v>0.9607432496315198</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8387904703173774</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.715103485802814</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.287046703244869</v>
       </c>
       <c r="L11">
-        <v>0.4788043087449836</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1.469776837969945</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.5623788658726809</v>
+      </c>
+      <c r="O11">
+        <v>1.654157368388937</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.392594458076815</v>
+        <v>4.742623793572022</v>
       </c>
       <c r="C12">
-        <v>1.148060013910566</v>
+        <v>1.134352901198326</v>
       </c>
       <c r="D12">
-        <v>0.005890567163497451</v>
+        <v>0.2644754486801304</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.000794615610644</v>
+        <v>2.896989436962883</v>
       </c>
       <c r="G12">
-        <v>0.4888624549233782</v>
+        <v>0.0007604557176990018</v>
       </c>
       <c r="H12">
-        <v>0.9848471662800762</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8574604166498005</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.7344912008675664</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.322885118347003</v>
       </c>
       <c r="L12">
-        <v>0.4926832104718883</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.511436595128117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0.5501748347900985</v>
+      </c>
+      <c r="O12">
+        <v>1.691824461795406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.367622930374637</v>
+        <v>4.715005467578692</v>
       </c>
       <c r="C13">
-        <v>1.141709858423894</v>
+        <v>1.127670627062969</v>
       </c>
       <c r="D13">
-        <v>0.005943041499749668</v>
+        <v>0.2630411177876937</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.989619138143098</v>
+        <v>2.882726344860174</v>
       </c>
       <c r="G13">
-        <v>0.4860033334034455</v>
+        <v>0.0007609239580923173</v>
       </c>
       <c r="H13">
-        <v>0.9796294476663405</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8534119319295073</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.730301609219552</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.315149078646144</v>
       </c>
       <c r="L13">
-        <v>0.4896826183363672</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1.502441355508381</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.5527856708753021</v>
+      </c>
+      <c r="O13">
+        <v>1.683668670357903</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.286343336453797</v>
+        <v>4.625175675269645</v>
       </c>
       <c r="C14">
-        <v>1.121041729704359</v>
+        <v>1.10593670994092</v>
       </c>
       <c r="D14">
-        <v>0.006115785712434985</v>
+        <v>0.258374304815149</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.95336386625543</v>
+        <v>2.836472618563391</v>
       </c>
       <c r="G14">
-        <v>0.4767294883758524</v>
+        <v>0.0007624521910830412</v>
       </c>
       <c r="H14">
-        <v>0.9627144655179194</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8403141484311618</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.7166922394976041</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.289987313901477</v>
       </c>
       <c r="L14">
-        <v>0.4799410004408884</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1.473193939038339</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0.5613669919880735</v>
+      </c>
+      <c r="O14">
+        <v>1.657236847894112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.236675729764272</v>
+        <v>4.570332415245673</v>
       </c>
       <c r="C15">
-        <v>1.108412695294987</v>
+        <v>1.092667924282921</v>
       </c>
       <c r="D15">
-        <v>0.006222811504747128</v>
+        <v>0.2555239141815235</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.931299958269889</v>
+        <v>2.808337911897297</v>
       </c>
       <c r="G15">
-        <v>0.4710869381539879</v>
+        <v>0.0007633892486485517</v>
       </c>
       <c r="H15">
-        <v>0.9524297995779563</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8323707580067534</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.7083965947012132</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.274625459194866</v>
       </c>
       <c r="L15">
-        <v>0.4740070369325409</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1.455345172212347</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.5666739691443041</v>
+      </c>
+      <c r="O15">
+        <v>1.641171763546183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.953750872918761</v>
+        <v>4.258648081560352</v>
       </c>
       <c r="C16">
-        <v>1.036480953905567</v>
+        <v>1.017261057069135</v>
       </c>
       <c r="D16">
-        <v>0.006853758946186339</v>
+        <v>0.239307808201076</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.806948012842227</v>
+        <v>2.649979196535469</v>
       </c>
       <c r="G16">
-        <v>0.4393031210484963</v>
+        <v>0.0007687759707380785</v>
       </c>
       <c r="H16">
-        <v>0.8946028640742298</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7880087737117023</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.661444168916276</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.187320704333914</v>
       </c>
       <c r="L16">
-        <v>0.4404797272893646</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1.354014274360253</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0.5978359021444675</v>
+      </c>
+      <c r="O16">
+        <v>1.550933013818124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.781582068390151</v>
+        <v>4.069593909883281</v>
       </c>
       <c r="C17">
-        <v>0.9927128961095946</v>
+        <v>0.9715219091375218</v>
       </c>
       <c r="D17">
-        <v>0.007255532960563471</v>
+        <v>0.2294582257485729</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.732408359022386</v>
+        <v>2.555236266753923</v>
       </c>
       <c r="G17">
-        <v>0.420265305025012</v>
+        <v>0.0007720975873140658</v>
       </c>
       <c r="H17">
-        <v>0.8600580367601651</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7617671840602327</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.6331285106580395</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.134364293249519</v>
       </c>
       <c r="L17">
-        <v>0.4203082809350889</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1.292639025581849</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0.6175939324266508</v>
+      </c>
+      <c r="O17">
+        <v>1.497103447170659</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.68302264982367</v>
+        <v>3.961583704239558</v>
       </c>
       <c r="C18">
-        <v>0.9676583825747969</v>
+        <v>0.9453891302991906</v>
       </c>
       <c r="D18">
-        <v>0.007491648184518418</v>
+        <v>0.2238265029383655</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.690132797665839</v>
+        <v>2.501567533218591</v>
       </c>
       <c r="G18">
-        <v>0.4094725928278109</v>
+        <v>0.0007740151216748689</v>
       </c>
       <c r="H18">
-        <v>0.8405076351801597</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.7470083776160124</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.6170081584424878</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.10410862564197</v>
       </c>
       <c r="L18">
-        <v>0.4088406135759826</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1.257603540309091</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0.6291833351567817</v>
+      </c>
+      <c r="O18">
+        <v>1.466666798480006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.649728280846318</v>
+        <v>3.925132770440712</v>
       </c>
       <c r="C19">
-        <v>0.9591947848053053</v>
+        <v>0.9365696472149807</v>
       </c>
       <c r="D19">
-        <v>0.007572421976444588</v>
+        <v>0.2219252073663256</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.67591767369025</v>
+        <v>2.483532558072355</v>
       </c>
       <c r="G19">
-        <v>0.4058443089420649</v>
+        <v>0.0007746656424612031</v>
       </c>
       <c r="H19">
-        <v>0.8339408904470673</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.7420666983375526</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.6115774001547436</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.09389790280801</v>
       </c>
       <c r="L19">
-        <v>0.404979923729627</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>1.245784660303386</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0.6331450163584407</v>
+      </c>
+      <c r="O19">
+        <v>1.456448218411268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.799860348674997</v>
+        <v>4.089642255425588</v>
       </c>
       <c r="C20">
-        <v>0.9973594183282728</v>
+        <v>0.9763724391503104</v>
       </c>
       <c r="D20">
-        <v>0.007212235132619149</v>
+        <v>0.2305032051550597</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.740280414096517</v>
+        <v>2.565235155354799</v>
       </c>
       <c r="G20">
-        <v>0.4222753697142849</v>
+        <v>0.0007717432850113075</v>
       </c>
       <c r="H20">
-        <v>0.8637018903856699</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7645255097348596</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6361252835165487</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.139980147126778</v>
       </c>
       <c r="L20">
-        <v>0.4224414087462662</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1.299144487246224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0.6154671292978762</v>
+      </c>
+      <c r="O20">
+        <v>1.502778581770883</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.310192144420739</v>
+        <v>4.651522940253471</v>
       </c>
       <c r="C21">
-        <v>1.1271059649699</v>
+        <v>1.112311245127557</v>
       </c>
       <c r="D21">
-        <v>0.006064790876049386</v>
+        <v>0.2597433420459794</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.963982739161509</v>
+        <v>2.850017027392482</v>
       </c>
       <c r="G21">
-        <v>0.4794454586935615</v>
+        <v>0.0007620031144401906</v>
       </c>
       <c r="H21">
-        <v>0.9676667719268579</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8441445986892973</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.7206811200459668</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.297367307857627</v>
       </c>
       <c r="L21">
-        <v>0.4827953891904144</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1.4817706863723</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0.5588358242279838</v>
+      </c>
+      <c r="O21">
+        <v>1.664974196190926</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.648901104522054</v>
+        <v>5.026631302353906</v>
       </c>
       <c r="C22">
-        <v>1.213246568305721</v>
+        <v>1.203074010637408</v>
       </c>
       <c r="D22">
-        <v>0.005368195408160581</v>
+        <v>0.2792115839029208</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.116486207643561</v>
+        <v>3.044794920662497</v>
       </c>
       <c r="G22">
-        <v>0.5184750710396884</v>
+        <v>0.000755682906184811</v>
       </c>
       <c r="H22">
-        <v>1.038963351015227</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8996699883491175</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.7777186322469447</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.402437855902619</v>
       </c>
       <c r="L22">
-        <v>0.5236887076098071</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.604021688103998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0.5240628490791082</v>
+      </c>
+      <c r="O22">
+        <v>1.776478218889764</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.467599084909352</v>
+        <v>4.825634282571059</v>
       </c>
       <c r="C23">
-        <v>1.167134244113015</v>
+        <v>1.154437827989852</v>
       </c>
       <c r="D23">
-        <v>0.005734643232197634</v>
+        <v>0.2687851240471844</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.034464618765256</v>
+        <v>2.939977705412673</v>
       </c>
       <c r="G23">
-        <v>0.4974780115914541</v>
+        <v>0.0007590528393222728</v>
       </c>
       <c r="H23">
-        <v>1.000577915887433</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.869689133179989</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.7470986633583294</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.346136851010215</v>
       </c>
       <c r="L23">
-        <v>0.501717443664063</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.53848168669802</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0.5424047287142812</v>
+      </c>
+      <c r="O23">
+        <v>1.716419933649291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.791595432224824</v>
+        <v>4.080576296537231</v>
       </c>
       <c r="C24">
-        <v>0.9952583911605473</v>
+        <v>0.9741790097858996</v>
       </c>
       <c r="D24">
-        <v>0.007231794191470797</v>
+        <v>0.2300306742484253</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.736719667162333</v>
+        <v>2.560712179129894</v>
       </c>
       <c r="G24">
-        <v>0.4213661476356236</v>
+        <v>0.0007719034402739166</v>
       </c>
       <c r="H24">
-        <v>0.8620535443584032</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.7632774549702148</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.6347699513363807</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.13744063298563</v>
       </c>
       <c r="L24">
-        <v>0.4214766219961916</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1.296202595013625</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0.6164279423032824</v>
+      </c>
+      <c r="O24">
+        <v>1.500211271503758</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.0798442559053</v>
+        <v>3.304160540241753</v>
       </c>
       <c r="C25">
-        <v>0.8143182416479817</v>
+        <v>0.7862827212836123</v>
       </c>
       <c r="D25">
-        <v>0.009035540524323871</v>
+        <v>0.1894821253060002</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.437973929200965</v>
+        <v>2.182579331715175</v>
       </c>
       <c r="G25">
-        <v>0.3451665550577161</v>
+        <v>0.0007860411442526878</v>
       </c>
       <c r="H25">
-        <v>0.7246002923808419</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6610668181751365</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5198259335809183</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.9199333564917112</v>
       </c>
       <c r="L25">
-        <v>0.3399549242312574</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>1.044804030932617</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.7047790652371368</v>
+      </c>
+      <c r="O25">
+        <v>1.28669522989729</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_49/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.749506297977121</v>
+        <v>1.06241551798567</v>
       </c>
       <c r="C2">
-        <v>0.6519268148088884</v>
+        <v>0.1625517919352575</v>
       </c>
       <c r="D2">
-        <v>0.160428969857378</v>
+        <v>0.4254326791273968</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.924841755287332</v>
+        <v>0.6361127786599354</v>
       </c>
       <c r="G2">
-        <v>0.0007967674608704454</v>
+        <v>0.2858219823562251</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.2705343860548624</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.439196901248323</v>
+        <v>0.4354195007930883</v>
       </c>
       <c r="K2">
-        <v>0.7645042931618207</v>
+        <v>1.128866155899004</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7761107206004567</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.142675182280243</v>
+        <v>1.120523635060636</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.38149655756024</v>
+        <v>0.9250584753076225</v>
       </c>
       <c r="C3">
-        <v>0.5626715010175189</v>
+        <v>0.1470721289468031</v>
       </c>
       <c r="D3">
-        <v>0.1411225005359285</v>
+        <v>0.3745459713504715</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.760541882110687</v>
+        <v>0.6120746312994854</v>
       </c>
       <c r="G3">
-        <v>0.000804268414199909</v>
+        <v>0.2833112948505914</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.2756248648390809</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3864815115270375</v>
+        <v>0.3847595751089443</v>
       </c>
       <c r="K3">
-        <v>0.6613401820143849</v>
+        <v>0.9869800354539393</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8279313474876595</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.051706298944737</v>
+        <v>1.125487359096184</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.158635502071718</v>
+        <v>0.8407521517826808</v>
       </c>
       <c r="C4">
-        <v>0.5085567276461234</v>
+        <v>0.1375642112945883</v>
       </c>
       <c r="D4">
-        <v>0.1294232576773879</v>
+        <v>0.3435724611938724</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.664043492662231</v>
+        <v>0.5986498621923744</v>
       </c>
       <c r="G4">
-        <v>0.0008089982299168862</v>
+        <v>0.282628174297848</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.2792840722092507</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3549002453742673</v>
+        <v>0.3541429358287189</v>
       </c>
       <c r="K4">
-        <v>0.598844603927013</v>
+        <v>0.8998176190789309</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.861337910623547</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.9986615701960986</v>
+        <v>1.131463189064661</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.068490813016183</v>
+        <v>0.8063946786543568</v>
       </c>
       <c r="C5">
-        <v>0.4866509795313902</v>
+        <v>0.1336879855120401</v>
       </c>
       <c r="D5">
-        <v>0.1246901606391901</v>
+        <v>0.331012023501188</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.625722486583797</v>
+        <v>0.5934986760685277</v>
       </c>
       <c r="G5">
-        <v>0.0008109582445303272</v>
+        <v>0.2825554911936905</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.2809049703600053</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3422061690536538</v>
+        <v>0.3417784731922637</v>
       </c>
       <c r="K5">
-        <v>0.5735603032832728</v>
+        <v>0.864277852125241</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8753333295047945</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.9776896278249652</v>
+        <v>1.134603794312682</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.053560060643179</v>
+        <v>0.8006892507994792</v>
       </c>
       <c r="C6">
-        <v>0.4830216556778453</v>
+        <v>0.1330442170466171</v>
       </c>
       <c r="D6">
-        <v>0.1239061877474086</v>
+        <v>0.3289298997971599</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.619417133751696</v>
+        <v>0.5926621665231835</v>
       </c>
       <c r="G6">
-        <v>0.0008112857085383099</v>
+        <v>0.2825555570279406</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.281181829238399</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3401083161804053</v>
+        <v>0.3397318257405288</v>
       </c>
       <c r="K6">
-        <v>0.5693720954826986</v>
+        <v>0.8583750078518619</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8776798444584095</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.9742444273687809</v>
+        <v>1.135167017899832</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.157417188459419</v>
+        <v>0.840288815446371</v>
       </c>
       <c r="C7">
-        <v>0.5082607396521155</v>
+        <v>0.1375119429837923</v>
       </c>
       <c r="D7">
-        <v>0.1293592917659652</v>
+        <v>0.343402826204894</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.663522746894287</v>
+        <v>0.5985791185365201</v>
       </c>
       <c r="G7">
-        <v>0.0008090245297160404</v>
+        <v>0.2826263743224828</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.2793054126130556</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3547283658166407</v>
+        <v>0.3539757445321925</v>
       </c>
       <c r="K7">
-        <v>0.5985029073015227</v>
+        <v>0.8993384118054166</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8615251331869587</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9983762058770438</v>
+        <v>1.131502727982195</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.621906781562643</v>
+        <v>1.01504211486855</v>
       </c>
       <c r="C8">
-        <v>0.6209919556533521</v>
+        <v>0.157214573595013</v>
       </c>
       <c r="D8">
-        <v>0.1537370734161811</v>
+        <v>0.4078265390472779</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.867219367433066</v>
+        <v>0.6275374536499214</v>
       </c>
       <c r="G8">
-        <v>0.0007993288540609328</v>
+        <v>0.2847718576673799</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.2721760885989539</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4208435371853483</v>
+        <v>0.4178438080738829</v>
       </c>
       <c r="K8">
-        <v>0.7287385405415847</v>
+        <v>1.079947040258531</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7936378252727749</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.110686541010395</v>
+        <v>1.121608370421214</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.562658748657554</v>
+        <v>1.358473858095977</v>
       </c>
       <c r="C9">
-        <v>0.8488555501793087</v>
+        <v>0.1958673567229994</v>
       </c>
       <c r="D9">
-        <v>0.2029992898235236</v>
+        <v>0.5366362059468202</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.306375279976521</v>
+        <v>0.6956837844125161</v>
       </c>
       <c r="G9">
-        <v>0.0007812345234647578</v>
+        <v>0.2962733375340818</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.262640393689999</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5578403840817288</v>
+        <v>0.5474895790209757</v>
       </c>
       <c r="K9">
-        <v>0.9923557496449149</v>
+        <v>1.434242118567795</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6739787949971152</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.356338531020072</v>
+        <v>1.126904089459799</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.280323689368515</v>
+        <v>1.611997765617161</v>
       </c>
       <c r="C10">
-        <v>1.022505091719665</v>
+        <v>0.2243418631733505</v>
       </c>
       <c r="D10">
-        <v>0.2404364441160709</v>
+        <v>0.6332671063341309</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.660905983514198</v>
+        <v>0.7538091650949212</v>
       </c>
       <c r="G10">
-        <v>0.0007683978490480365</v>
+        <v>0.3098792237256589</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.2586534962318154</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6646986301770426</v>
+        <v>0.6462025627804167</v>
       </c>
       <c r="K10">
-        <v>1.193392236279948</v>
+        <v>1.695340052936643</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5956126233241932</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.557149080273192</v>
+        <v>1.148003492555844</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.614677420063799</v>
+        <v>1.727775240084611</v>
       </c>
       <c r="C11">
-        <v>1.103396745186046</v>
+        <v>0.2373284948922816</v>
       </c>
       <c r="D11">
-        <v>0.2578287442875364</v>
+        <v>0.6777759494564464</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.831080842296643</v>
+        <v>0.7822704791107498</v>
       </c>
       <c r="G11">
-        <v>0.0007626313259490136</v>
+        <v>0.3173562484245593</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.2575685777864933</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.715103485802814</v>
+        <v>0.6920476450798674</v>
       </c>
       <c r="K11">
-        <v>1.287046703244869</v>
+        <v>1.814468174273628</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5623788658726809</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1.654157368388937</v>
+        <v>1.161848354436017</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.742623793572022</v>
+        <v>1.771697381023387</v>
       </c>
       <c r="C12">
-        <v>1.134352901198326</v>
+        <v>0.2422524174796479</v>
       </c>
       <c r="D12">
-        <v>0.2644754486801304</v>
+        <v>0.694719711120058</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.896989436962883</v>
+        <v>0.7933624515446809</v>
       </c>
       <c r="G12">
-        <v>0.0007604557176990018</v>
+        <v>0.320387772166626</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.2572691162762055</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.7344912008675664</v>
+        <v>0.709559727070797</v>
       </c>
       <c r="K12">
-        <v>1.322885118347003</v>
+        <v>1.859644914934904</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5501748347900985</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1.691824461795406</v>
+        <v>1.167747314302801</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.715005467578692</v>
+        <v>1.762234160787955</v>
       </c>
       <c r="C13">
-        <v>1.127670627062969</v>
+        <v>0.2411916655271398</v>
       </c>
       <c r="D13">
-        <v>0.2630411177876937</v>
+        <v>0.6910664334544094</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.882726344860174</v>
+        <v>0.7909592212498211</v>
       </c>
       <c r="G13">
-        <v>0.0007609239580923173</v>
+        <v>0.3197257287369126</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.2573285476522074</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.730301609219552</v>
+        <v>0.7057811733583463</v>
       </c>
       <c r="K13">
-        <v>1.315149078646144</v>
+        <v>1.849912135954639</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5527856708753021</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1.683668670357903</v>
+        <v>1.166446923897723</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.625175675269645</v>
+        <v>1.731387051667951</v>
       </c>
       <c r="C14">
-        <v>1.10593670994092</v>
+        <v>0.2377334571863514</v>
       </c>
       <c r="D14">
-        <v>0.258374304815149</v>
+        <v>0.6791680748021065</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.836472618563391</v>
+        <v>0.7831765810324214</v>
       </c>
       <c r="G14">
-        <v>0.0007624521910830412</v>
+        <v>0.3176015532475205</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.2575416695046897</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.7166922394976041</v>
+        <v>0.6934852393841737</v>
       </c>
       <c r="K14">
-        <v>1.289987313901477</v>
+        <v>1.81818349085836</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5613669919880735</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>1.657236847894112</v>
+        <v>1.162320241960657</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.570332415245673</v>
+        <v>1.712503162012126</v>
       </c>
       <c r="C15">
-        <v>1.092667924282921</v>
+        <v>0.2356160500948477</v>
       </c>
       <c r="D15">
-        <v>0.2555239141815235</v>
+        <v>0.6718919158359142</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.808337911897297</v>
+        <v>0.778451154930039</v>
       </c>
       <c r="G15">
-        <v>0.0007633892486485517</v>
+        <v>0.316326959994619</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2576869199551624</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.7083965947012132</v>
+        <v>0.6859738665951483</v>
       </c>
       <c r="K15">
-        <v>1.274625459194866</v>
+        <v>1.798757765892418</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5666739691443041</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1.641171763546183</v>
+        <v>1.159879393065665</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.258648081560352</v>
+        <v>1.604441733933129</v>
       </c>
       <c r="C16">
-        <v>1.017261057069135</v>
+        <v>0.2234939427040814</v>
       </c>
       <c r="D16">
-        <v>0.239307808201076</v>
+        <v>0.6303702743257986</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.649979196535469</v>
+        <v>0.7519917961629119</v>
       </c>
       <c r="G16">
-        <v>0.0007687759707380785</v>
+        <v>0.3094177504539886</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.2587396148015912</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.661444168916276</v>
+        <v>0.643226767033525</v>
       </c>
       <c r="K16">
-        <v>1.187320704333914</v>
+        <v>1.687563091104863</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5978359021444675</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1.550933013818124</v>
+        <v>1.147187975426434</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.069593909883281</v>
+        <v>1.538274851821001</v>
       </c>
       <c r="C17">
-        <v>0.9715219091375218</v>
+        <v>0.2160669183586919</v>
       </c>
       <c r="D17">
-        <v>0.2294582257485729</v>
+        <v>0.6050461014523023</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.555236266753923</v>
+        <v>0.7362936134100408</v>
       </c>
       <c r="G17">
-        <v>0.0007720975873140658</v>
+        <v>0.3055193110231968</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.2595766008327018</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6331285106580395</v>
+        <v>0.6172548494272547</v>
       </c>
       <c r="K17">
-        <v>1.134364293249519</v>
+        <v>1.619449368053665</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6175939324266508</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1.497103447170659</v>
+        <v>1.140521319900316</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.961583704239558</v>
+        <v>1.500258615133021</v>
       </c>
       <c r="C18">
-        <v>0.9453891302991906</v>
+        <v>0.2117981496725747</v>
       </c>
       <c r="D18">
-        <v>0.2238265029383655</v>
+        <v>0.5905315264757007</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.501567533218591</v>
+        <v>0.7274530245799227</v>
       </c>
       <c r="G18">
-        <v>0.0007740151216748689</v>
+        <v>0.3033972759922605</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.2601261859808446</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6170081584424878</v>
+        <v>0.6024039231360661</v>
       </c>
       <c r="K18">
-        <v>1.10410862564197</v>
+        <v>1.580304471013079</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6291833351567817</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1.466666798480006</v>
+        <v>1.137083646212346</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.925132770440712</v>
+        <v>1.487393600301345</v>
       </c>
       <c r="C19">
-        <v>0.9365696472149807</v>
+        <v>0.2103533037703755</v>
       </c>
       <c r="D19">
-        <v>0.2219252073663256</v>
+        <v>0.5856256445080419</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.483532558072355</v>
+        <v>0.7244914433830303</v>
       </c>
       <c r="G19">
-        <v>0.0007746656424612031</v>
+        <v>0.3026990034128758</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.2603237815063366</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6115774001547436</v>
+        <v>0.5973901920617237</v>
       </c>
       <c r="K19">
-        <v>1.09389790280801</v>
+        <v>1.567055802057752</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6331450163584407</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1.456448218411268</v>
+        <v>1.135986523223195</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.089642255425588</v>
+        <v>1.545314057879523</v>
       </c>
       <c r="C20">
-        <v>0.9763724391503104</v>
+        <v>0.2168572116647596</v>
       </c>
       <c r="D20">
-        <v>0.2305032051550597</v>
+        <v>0.6077365316743055</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.565235155354799</v>
+        <v>0.7379450257675586</v>
       </c>
       <c r="G20">
-        <v>0.0007717432850113075</v>
+        <v>0.3059217564564349</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.2594804003471722</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6361252835165487</v>
+        <v>0.6200104405595397</v>
       </c>
       <c r="K20">
-        <v>1.139980147126778</v>
+        <v>1.626696742807866</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6154671292978762</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.502778581770883</v>
+        <v>1.141189608220444</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.651522940253471</v>
+        <v>1.740445304215626</v>
       </c>
       <c r="C21">
-        <v>1.112311245127557</v>
+        <v>0.2387490380443609</v>
       </c>
       <c r="D21">
-        <v>0.2597433420459794</v>
+        <v>0.6826604062401032</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.850017027392482</v>
+        <v>0.7854538031117073</v>
       </c>
       <c r="G21">
-        <v>0.0007620031144401906</v>
+        <v>0.3182199189981176</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.2574759931036255</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7206811200459668</v>
+        <v>0.6970926039498551</v>
       </c>
       <c r="K21">
-        <v>1.297367307857627</v>
+        <v>1.827501062462659</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5588358242279838</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1.664974196190926</v>
+        <v>1.163514160607889</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.026631302353906</v>
+        <v>1.868447475065068</v>
       </c>
       <c r="C22">
-        <v>1.203074010637408</v>
+        <v>0.253093270757617</v>
       </c>
       <c r="D22">
-        <v>0.2792115839029208</v>
+        <v>0.7321527508410384</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.044794920662497</v>
+        <v>0.8183477385032774</v>
       </c>
       <c r="G22">
-        <v>0.000755682906184811</v>
+        <v>0.3274317288013862</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.2568185538468697</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.7777186322469447</v>
+        <v>0.748362051530421</v>
       </c>
       <c r="K22">
-        <v>1.402437855902619</v>
+        <v>1.959127763782078</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5240628490791082</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1.776478218889764</v>
+        <v>1.18195287059649</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.825634282571059</v>
+        <v>1.800081711643088</v>
       </c>
       <c r="C23">
-        <v>1.154437827989852</v>
+        <v>0.245433650851794</v>
       </c>
       <c r="D23">
-        <v>0.2687851240471844</v>
+        <v>0.7056861989154584</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.939977705412673</v>
+        <v>0.8006145649493845</v>
       </c>
       <c r="G23">
-        <v>0.0007590528393222728</v>
+        <v>0.3224025498412146</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.2571074380786769</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7470986633583294</v>
+        <v>0.7209112553507566</v>
       </c>
       <c r="K23">
-        <v>1.346136851010215</v>
+        <v>1.888835324684777</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5424047287142812</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1.716419933649291</v>
+        <v>1.171743786960661</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.080576296537231</v>
+        <v>1.542131559252908</v>
       </c>
       <c r="C24">
-        <v>0.9741790097858996</v>
+        <v>0.2164999166534898</v>
       </c>
       <c r="D24">
-        <v>0.2300306742484253</v>
+        <v>0.6065200499081413</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.560712179129894</v>
+        <v>0.737197849331011</v>
       </c>
       <c r="G24">
-        <v>0.0007719034402739166</v>
+        <v>0.3057394406225669</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.2595236800571783</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6347699513363807</v>
+        <v>0.618764387746694</v>
       </c>
       <c r="K24">
-        <v>1.13744063298563</v>
+        <v>1.623420160334973</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6164279423032824</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.500211271503758</v>
+        <v>1.14088624790736</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.304160540241753</v>
+        <v>1.265412541526587</v>
       </c>
       <c r="C25">
-        <v>0.7862827212836123</v>
+        <v>0.1854024842471489</v>
       </c>
       <c r="D25">
-        <v>0.1894821253060002</v>
+        <v>0.5014765548720277</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.182579331715175</v>
+        <v>0.6759195399004412</v>
       </c>
       <c r="G25">
-        <v>0.0007860411442526878</v>
+        <v>0.2923104082861983</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.2647134275853134</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5198259335809183</v>
+        <v>0.511868455058746</v>
       </c>
       <c r="K25">
-        <v>0.9199333564917112</v>
+        <v>1.338311310728557</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7047790652371368</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.28669522989729</v>
+        <v>1.122613142559473</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_49/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.06241551798567</v>
+        <v>0.381382609085108</v>
       </c>
       <c r="C2">
-        <v>0.1625517919352575</v>
+        <v>0.05879030905613547</v>
       </c>
       <c r="D2">
-        <v>0.4254326791273968</v>
+        <v>0.3478214565051303</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6361127786599354</v>
+        <v>1.179065208724786</v>
       </c>
       <c r="G2">
-        <v>0.2858219823562251</v>
+        <v>0.5527075265866586</v>
       </c>
       <c r="H2">
-        <v>0.2705343860548624</v>
+        <v>0.6979076677046265</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4354195007930883</v>
+        <v>0.3486957219232778</v>
       </c>
       <c r="K2">
-        <v>1.128866155899004</v>
+        <v>0.363631907206269</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.120523635060636</v>
+        <v>2.474723568599416</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9250584753076225</v>
+        <v>0.3389749717559596</v>
       </c>
       <c r="C3">
-        <v>0.1470721289468031</v>
+        <v>0.05353914119946523</v>
       </c>
       <c r="D3">
-        <v>0.3745459713504715</v>
+        <v>0.3351820282697417</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6120746312994854</v>
+        <v>1.182757566074585</v>
       </c>
       <c r="G3">
-        <v>0.2833112948505914</v>
+        <v>0.5577120479550857</v>
       </c>
       <c r="H3">
-        <v>0.2756248648390809</v>
+        <v>0.7041546484010084</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3847595751089443</v>
+        <v>0.3372058456523774</v>
       </c>
       <c r="K3">
-        <v>0.9869800354539393</v>
+        <v>0.3186676425652593</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.125487359096184</v>
+        <v>2.49815563862731</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8407521517826808</v>
+        <v>0.3129154250683825</v>
       </c>
       <c r="C4">
-        <v>0.1375642112945883</v>
+        <v>0.0503003378455702</v>
       </c>
       <c r="D4">
-        <v>0.3435724611938724</v>
+        <v>0.3275651915319742</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5986498621923744</v>
+        <v>1.185723802380089</v>
       </c>
       <c r="G4">
-        <v>0.282628174297848</v>
+        <v>0.5611861172651942</v>
       </c>
       <c r="H4">
-        <v>0.2792840722092507</v>
+        <v>0.7083057156723243</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3541429358287189</v>
+        <v>0.3303527125874268</v>
       </c>
       <c r="K4">
-        <v>0.8998176190789309</v>
+        <v>0.2909835266092671</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.131463189064661</v>
+        <v>2.51404521357982</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8063946786543568</v>
+        <v>0.3022913321089504</v>
       </c>
       <c r="C5">
-        <v>0.1336879855120401</v>
+        <v>0.04897693632322841</v>
       </c>
       <c r="D5">
-        <v>0.331012023501188</v>
+        <v>0.3244976132567956</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5934986760685277</v>
+        <v>1.187108364809603</v>
       </c>
       <c r="G5">
-        <v>0.2825554911936905</v>
+        <v>0.5627026188610671</v>
       </c>
       <c r="H5">
-        <v>0.2809049703600053</v>
+        <v>0.7100766470375675</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3417784731922637</v>
+        <v>0.3276107333784353</v>
       </c>
       <c r="K5">
-        <v>0.864277852125241</v>
+        <v>0.2796836746927625</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.134603794312682</v>
+        <v>2.520897896684403</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8006892507994792</v>
+        <v>0.3005269510116761</v>
       </c>
       <c r="C6">
-        <v>0.1330442170466171</v>
+        <v>0.04875697426346903</v>
       </c>
       <c r="D6">
-        <v>0.3289298997971599</v>
+        <v>0.3239904446155748</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5926621665231835</v>
+        <v>1.187348888038038</v>
       </c>
       <c r="G6">
-        <v>0.2825555570279406</v>
+        <v>0.562960516948678</v>
       </c>
       <c r="H6">
-        <v>0.281181829238399</v>
+        <v>0.7103755014995627</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3397318257405288</v>
+        <v>0.3271584939745367</v>
       </c>
       <c r="K6">
-        <v>0.8583750078518619</v>
+        <v>0.2778062561407069</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.135167017899832</v>
+        <v>2.522058577289627</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.840288815446371</v>
+        <v>0.312772162615147</v>
       </c>
       <c r="C7">
-        <v>0.1375119429837923</v>
+        <v>0.05028250428418346</v>
       </c>
       <c r="D7">
-        <v>0.343402826204894</v>
+        <v>0.3275236737024159</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5985791185365201</v>
+        <v>1.1857417632799</v>
       </c>
       <c r="G7">
-        <v>0.2826263743224828</v>
+        <v>0.5612061613911337</v>
       </c>
       <c r="H7">
-        <v>0.2793054126130556</v>
+        <v>0.7083292777990664</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3539757445321925</v>
+        <v>0.3303155278862562</v>
       </c>
       <c r="K7">
-        <v>0.8993384118054166</v>
+        <v>0.2908312061828155</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.131502727982195</v>
+        <v>2.514136102814362</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.01504211486855</v>
+        <v>0.3667652300102588</v>
       </c>
       <c r="C8">
-        <v>0.157214573595013</v>
+        <v>0.05698278739802731</v>
       </c>
       <c r="D8">
-        <v>0.4078265390472779</v>
+        <v>0.3434336339579431</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6275374536499214</v>
+        <v>1.180193229632465</v>
       </c>
       <c r="G8">
-        <v>0.2847718576673799</v>
+        <v>0.5543497330687472</v>
       </c>
       <c r="H8">
-        <v>0.2721760885989539</v>
+        <v>0.6999961837329138</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4178438080738829</v>
+        <v>0.3446921518173269</v>
       </c>
       <c r="K8">
-        <v>1.079947040258531</v>
+        <v>0.3481444000663032</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.121608370421214</v>
+        <v>2.482491055285024</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.358473858095977</v>
+        <v>0.4724532020235586</v>
       </c>
       <c r="C9">
-        <v>0.1958673567229994</v>
+        <v>0.07000270127902297</v>
       </c>
       <c r="D9">
-        <v>0.5366362059468202</v>
+        <v>0.3757681964598873</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6956837844125161</v>
+        <v>1.174860992600429</v>
       </c>
       <c r="G9">
-        <v>0.2962733375340818</v>
+        <v>0.5440935633866033</v>
       </c>
       <c r="H9">
-        <v>0.262640393689999</v>
+        <v>0.6861562691596532</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5474895790209757</v>
+        <v>0.3744865127727905</v>
       </c>
       <c r="K9">
-        <v>1.434242118567795</v>
+        <v>0.459906691479631</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.126904089459799</v>
+        <v>2.432363357523712</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.611997765617161</v>
+        <v>0.5499590261626679</v>
       </c>
       <c r="C10">
-        <v>0.2243418631733505</v>
+        <v>0.07949156352151476</v>
       </c>
       <c r="D10">
-        <v>0.6332671063341309</v>
+        <v>0.4002111384830869</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7538091650949212</v>
+        <v>1.174329389647895</v>
       </c>
       <c r="G10">
-        <v>0.3098792237256589</v>
+        <v>0.5385103590625491</v>
       </c>
       <c r="H10">
-        <v>0.2586534962318154</v>
+        <v>0.6775112198893751</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6462025627804167</v>
+        <v>0.3973577333293719</v>
       </c>
       <c r="K10">
-        <v>1.695340052936643</v>
+        <v>0.5416072628156599</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.148003492555844</v>
+        <v>2.402819489974519</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.727775240084611</v>
+        <v>0.5851823495938504</v>
       </c>
       <c r="C11">
-        <v>0.2373284948922816</v>
+        <v>0.08379078986015998</v>
       </c>
       <c r="D11">
-        <v>0.6777759494564464</v>
+        <v>0.411479026979606</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7822704791107498</v>
+        <v>1.174823657823964</v>
       </c>
       <c r="G11">
-        <v>0.3173562484245593</v>
+        <v>0.5363959576298356</v>
       </c>
       <c r="H11">
-        <v>0.2575685777864933</v>
+        <v>0.6739087525737233</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.6920476450798674</v>
+        <v>0.4079767040252023</v>
       </c>
       <c r="K11">
-        <v>1.814468174273628</v>
+        <v>0.5786802844975512</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.161848354436017</v>
+        <v>2.390964005041496</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.771697381023387</v>
+        <v>0.598514960558731</v>
       </c>
       <c r="C12">
-        <v>0.2422524174796479</v>
+        <v>0.08541621911284381</v>
       </c>
       <c r="D12">
-        <v>0.694719711120058</v>
+        <v>0.4157671187782057</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.7933624515446809</v>
+        <v>1.175116713587414</v>
       </c>
       <c r="G12">
-        <v>0.320387772166626</v>
+        <v>0.535656596757768</v>
       </c>
       <c r="H12">
-        <v>0.2572691162762055</v>
+        <v>0.6725920530879677</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.709559727070797</v>
+        <v>0.4120287440035639</v>
       </c>
       <c r="K12">
-        <v>1.859644914934904</v>
+        <v>0.5927048750546362</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.167747314302801</v>
+        <v>2.386702682016335</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.762234160787955</v>
+        <v>0.5956438093934935</v>
       </c>
       <c r="C13">
-        <v>0.2411916655271398</v>
+        <v>0.08506627091112762</v>
       </c>
       <c r="D13">
-        <v>0.6910664334544094</v>
+        <v>0.4148426622474233</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7909592212498211</v>
+        <v>1.175048888845438</v>
       </c>
       <c r="G13">
-        <v>0.3197257287369126</v>
+        <v>0.5358131020176415</v>
       </c>
       <c r="H13">
-        <v>0.2573285476522074</v>
+        <v>0.6728735164499042</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7057811733583463</v>
+        <v>0.4111546921247964</v>
       </c>
       <c r="K13">
-        <v>1.849912135954639</v>
+        <v>0.5896850707463557</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.166446923897723</v>
+        <v>2.387610285124339</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.731387051667951</v>
+        <v>0.5862793499384509</v>
       </c>
       <c r="C14">
-        <v>0.2377334571863514</v>
+        <v>0.08392456750618749</v>
       </c>
       <c r="D14">
-        <v>0.6791680748021065</v>
+        <v>0.4118313873534305</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7831765810324214</v>
+        <v>1.174845645352775</v>
       </c>
       <c r="G14">
-        <v>0.3176015532475205</v>
+        <v>0.5363339002745846</v>
       </c>
       <c r="H14">
-        <v>0.2575416695046897</v>
+        <v>0.6737994754499326</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.6934852393841737</v>
+        <v>0.4083094492646069</v>
       </c>
       <c r="K14">
-        <v>1.81818349085836</v>
+        <v>0.5798343842560598</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.162320241960657</v>
+        <v>2.390608850474592</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.712503162012126</v>
+        <v>0.5805425842355874</v>
       </c>
       <c r="C15">
-        <v>0.2356160500948477</v>
+        <v>0.08322490019263284</v>
       </c>
       <c r="D15">
-        <v>0.6718919158359142</v>
+        <v>0.4099896480025507</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.778451154930039</v>
+        <v>1.174734943561774</v>
       </c>
       <c r="G15">
-        <v>0.316326959994619</v>
+        <v>0.5366608937140143</v>
       </c>
       <c r="H15">
-        <v>0.2576869199551624</v>
+        <v>0.674372834739124</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.6859738665951483</v>
+        <v>0.4065706751553222</v>
       </c>
       <c r="K15">
-        <v>1.798757765892418</v>
+        <v>0.573798687206363</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.159879393065665</v>
+        <v>2.392475271210103</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.604441733933129</v>
+        <v>0.5476563422012646</v>
       </c>
       <c r="C16">
-        <v>0.2234939427040814</v>
+        <v>0.07921024167347923</v>
       </c>
       <c r="D16">
-        <v>0.6303702743257986</v>
+        <v>0.3994777307320021</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.7519917961629119</v>
+        <v>1.174311903427096</v>
       </c>
       <c r="G16">
-        <v>0.3094177504539886</v>
+        <v>0.5386571129313609</v>
       </c>
       <c r="H16">
-        <v>0.2587396148015912</v>
+        <v>0.6777532936506958</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.643226767033525</v>
+        <v>0.3966680786244865</v>
       </c>
       <c r="K16">
-        <v>1.687563091104863</v>
+        <v>0.5391825152649972</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.147187975426434</v>
+        <v>2.40362617617123</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.538274851821001</v>
+        <v>0.5274723424518584</v>
       </c>
       <c r="C17">
-        <v>0.2160669183586919</v>
+        <v>0.07674287088138954</v>
       </c>
       <c r="D17">
-        <v>0.6050461014523023</v>
+        <v>0.3930669519477306</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7362936134100408</v>
+        <v>1.174240941004001</v>
       </c>
       <c r="G17">
-        <v>0.3055193110231968</v>
+        <v>0.5399907914509114</v>
       </c>
       <c r="H17">
-        <v>0.2595766008327018</v>
+        <v>0.6799116651333463</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6172548494272547</v>
+        <v>0.3906481471247929</v>
       </c>
       <c r="K17">
-        <v>1.619449368053665</v>
+        <v>0.517922239324804</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.140521319900316</v>
+        <v>2.410872845838966</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.500258615133021</v>
+        <v>0.5158598397972582</v>
       </c>
       <c r="C18">
-        <v>0.2117981496725747</v>
+        <v>0.07532208196114709</v>
       </c>
       <c r="D18">
-        <v>0.5905315264757007</v>
+        <v>0.3893936467115111</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7274530245799227</v>
+        <v>1.174269408072071</v>
       </c>
       <c r="G18">
-        <v>0.3033972759922605</v>
+        <v>0.5407979228002802</v>
       </c>
       <c r="H18">
-        <v>0.2601261859808446</v>
+        <v>0.6811841845528264</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6024039231360661</v>
+        <v>0.3872058547183315</v>
       </c>
       <c r="K18">
-        <v>1.580304471013079</v>
+        <v>0.5056851862775318</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.137083646212346</v>
+        <v>2.4151900307467</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.487393600301345</v>
+        <v>0.5119275189797179</v>
       </c>
       <c r="C19">
-        <v>0.2103533037703755</v>
+        <v>0.07484075182087224</v>
       </c>
       <c r="D19">
-        <v>0.5856256445080419</v>
+        <v>0.3881523399123523</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.7244914433830303</v>
+        <v>1.174290944763442</v>
       </c>
       <c r="G19">
-        <v>0.3026990034128758</v>
+        <v>0.5410780752928801</v>
       </c>
       <c r="H19">
-        <v>0.2603237815063366</v>
+        <v>0.6816203762107023</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5973901920617237</v>
+        <v>0.3860438256243128</v>
       </c>
       <c r="K19">
-        <v>1.567055802057752</v>
+        <v>0.5015404594148265</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.135986523223195</v>
+        <v>2.416677353236764</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.545314057879523</v>
+        <v>0.5296213002316108</v>
       </c>
       <c r="C20">
-        <v>0.2168572116647596</v>
+        <v>0.0770056954078342</v>
       </c>
       <c r="D20">
-        <v>0.6077365316743055</v>
+        <v>0.3937479422006049</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.7379450257675586</v>
+        <v>1.174241324292908</v>
       </c>
       <c r="G20">
-        <v>0.3059217564564349</v>
+        <v>0.5398446746232395</v>
       </c>
       <c r="H20">
-        <v>0.2594804003471722</v>
+        <v>0.6796786860636672</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6200104405595397</v>
+        <v>0.3912868872340312</v>
       </c>
       <c r="K20">
-        <v>1.626696742807866</v>
+        <v>0.5201863386091077</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.141189608220444</v>
+        <v>2.410085992889222</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.740445304215626</v>
+        <v>0.5890300791917582</v>
       </c>
       <c r="C21">
-        <v>0.2387490380443609</v>
+        <v>0.0842599847260459</v>
       </c>
       <c r="D21">
-        <v>0.6826604062401032</v>
+        <v>0.4127152983071198</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7854538031117073</v>
+        <v>1.174902468855649</v>
       </c>
       <c r="G21">
-        <v>0.3182199189981176</v>
+        <v>0.5361792639536418</v>
       </c>
       <c r="H21">
-        <v>0.2574759931036255</v>
+        <v>0.6735262103963322</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.6970926039498551</v>
+        <v>0.4091443284689262</v>
       </c>
       <c r="K21">
-        <v>1.827501062462659</v>
+        <v>0.5827281601744687</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.163514160607889</v>
+        <v>2.389721906492696</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.868447475065068</v>
+        <v>0.6278236009427189</v>
       </c>
       <c r="C22">
-        <v>0.253093270757617</v>
+        <v>0.08898591091815433</v>
       </c>
       <c r="D22">
-        <v>0.7321527508410384</v>
+        <v>0.4252349666077464</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.8183477385032774</v>
+        <v>1.175951772769579</v>
       </c>
       <c r="G22">
-        <v>0.3274317288013862</v>
+        <v>0.5341411738586288</v>
       </c>
       <c r="H22">
-        <v>0.2568185538468697</v>
+        <v>0.6697819393632187</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.748362051530421</v>
+        <v>0.4209951039843105</v>
       </c>
       <c r="K22">
-        <v>1.959127763782078</v>
+        <v>0.6235199680217818</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.18195287059649</v>
+        <v>2.377742426100525</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.800081711643088</v>
+        <v>0.6071220823030217</v>
       </c>
       <c r="C23">
-        <v>0.245433650851794</v>
+        <v>0.0864650182089548</v>
       </c>
       <c r="D23">
-        <v>0.7056861989154584</v>
+        <v>0.4185417559513382</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.8006145649493845</v>
+        <v>1.175335252958547</v>
       </c>
       <c r="G23">
-        <v>0.3224025498412146</v>
+        <v>0.535196186142656</v>
       </c>
       <c r="H23">
-        <v>0.2571074380786769</v>
+        <v>0.6717550089410054</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7209112553507566</v>
+        <v>0.4146536652061883</v>
       </c>
       <c r="K23">
-        <v>1.888835324684777</v>
+        <v>0.6017564562402242</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.171743786960661</v>
+        <v>2.384014343754984</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.542131559252908</v>
+        <v>0.5286497826913035</v>
       </c>
       <c r="C24">
-        <v>0.2164999166534898</v>
+        <v>0.07688687948576955</v>
       </c>
       <c r="D24">
-        <v>0.6065200499081413</v>
+        <v>0.3934400280658963</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.737197849331011</v>
+        <v>1.174240935256691</v>
       </c>
       <c r="G24">
-        <v>0.3057394406225669</v>
+        <v>0.5399106082646838</v>
       </c>
       <c r="H24">
-        <v>0.2595236800571783</v>
+        <v>0.6797839173335518</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.618764387746694</v>
+        <v>0.3909980547511793</v>
       </c>
       <c r="K24">
-        <v>1.623420160334973</v>
+        <v>0.5191627836107671</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.14088624790736</v>
+        <v>2.410441258840294</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.265412541526587</v>
+        <v>0.4438850789687194</v>
       </c>
       <c r="C25">
-        <v>0.1854024842471489</v>
+        <v>0.06649367299102948</v>
       </c>
       <c r="D25">
-        <v>0.5014765548720277</v>
+        <v>0.3668998584732321</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6759195399004412</v>
+        <v>1.175709139576362</v>
       </c>
       <c r="G25">
-        <v>0.2923104082861983</v>
+        <v>0.5465258931144419</v>
       </c>
       <c r="H25">
-        <v>0.2647134275853134</v>
+        <v>0.6896327324470732</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.511868455058746</v>
+        <v>0.3662543629464636</v>
       </c>
       <c r="K25">
-        <v>1.338311310728557</v>
+        <v>0.4297422363461862</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.122613142559473</v>
+        <v>2.444645865868821</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_49/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.381382609085108</v>
+        <v>1.062415517985841</v>
       </c>
       <c r="C2">
-        <v>0.05879030905613547</v>
+        <v>0.1625517919352859</v>
       </c>
       <c r="D2">
-        <v>0.3478214565051303</v>
+        <v>0.4254326791273968</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.179065208724786</v>
+        <v>0.6361127786599283</v>
       </c>
       <c r="G2">
-        <v>0.5527075265866586</v>
+        <v>0.2858219823560972</v>
       </c>
       <c r="H2">
-        <v>0.6979076677046265</v>
+        <v>0.2705343860548624</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3486957219232778</v>
+        <v>0.4354195007930883</v>
       </c>
       <c r="K2">
-        <v>0.363631907206269</v>
+        <v>1.128866155899004</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.474723568599416</v>
+        <v>1.120523635060593</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3389749717559596</v>
+        <v>0.9250584753077362</v>
       </c>
       <c r="C3">
-        <v>0.05353914119946523</v>
+        <v>0.1470721289467889</v>
       </c>
       <c r="D3">
-        <v>0.3351820282697417</v>
+        <v>0.3745459713504999</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.182757566074585</v>
+        <v>0.6120746312994925</v>
       </c>
       <c r="G3">
-        <v>0.5577120479550857</v>
+        <v>0.2833112948506553</v>
       </c>
       <c r="H3">
-        <v>0.7041546484010084</v>
+        <v>0.2756248648390809</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3372058456523774</v>
+        <v>0.3847595751089017</v>
       </c>
       <c r="K3">
-        <v>0.3186676425652593</v>
+        <v>0.9869800354539109</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.49815563862731</v>
+        <v>1.125487359096269</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3129154250683825</v>
+        <v>0.8407521517825671</v>
       </c>
       <c r="C4">
-        <v>0.0503003378455702</v>
+        <v>0.1375642112947162</v>
       </c>
       <c r="D4">
-        <v>0.3275651915319742</v>
+        <v>0.3435724611938582</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.185723802380089</v>
+        <v>0.5986498621923459</v>
       </c>
       <c r="G4">
-        <v>0.5611861172651942</v>
+        <v>0.2826281742978409</v>
       </c>
       <c r="H4">
-        <v>0.7083057156723243</v>
+        <v>0.2792840722092507</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3303527125874268</v>
+        <v>0.3541429358287189</v>
       </c>
       <c r="K4">
-        <v>0.2909835266092671</v>
+        <v>0.8998176190789877</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.51404521357982</v>
+        <v>1.131463189064633</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3022913321089504</v>
+        <v>0.8063946786542999</v>
       </c>
       <c r="C5">
-        <v>0.04897693632322841</v>
+        <v>0.1336879855119975</v>
       </c>
       <c r="D5">
-        <v>0.3244976132567956</v>
+        <v>0.3310120235011738</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.187108364809603</v>
+        <v>0.5934986760685277</v>
       </c>
       <c r="G5">
-        <v>0.5627026188610671</v>
+        <v>0.2825554911936834</v>
       </c>
       <c r="H5">
-        <v>0.7100766470375675</v>
+        <v>0.2809049703600124</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3276107333784353</v>
+        <v>0.3417784731923206</v>
       </c>
       <c r="K5">
-        <v>0.2796836746927625</v>
+        <v>0.8642778521252126</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.520897896684403</v>
+        <v>1.134603794312696</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3005269510116761</v>
+        <v>0.8006892507993371</v>
       </c>
       <c r="C6">
-        <v>0.04875697426346903</v>
+        <v>0.1330442170466455</v>
       </c>
       <c r="D6">
-        <v>0.3239904446155748</v>
+        <v>0.3289298997973162</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.187348888038038</v>
+        <v>0.5926621665231835</v>
       </c>
       <c r="G6">
-        <v>0.562960516948678</v>
+        <v>0.2825555570278908</v>
       </c>
       <c r="H6">
-        <v>0.7103755014995627</v>
+        <v>0.2811818292384061</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3271584939745367</v>
+        <v>0.339731825740472</v>
       </c>
       <c r="K6">
-        <v>0.2778062561407069</v>
+        <v>0.8583750078516914</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.522058577289627</v>
+        <v>1.135167017899775</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.312772162615147</v>
+        <v>0.8402888154462573</v>
       </c>
       <c r="C7">
-        <v>0.05028250428418346</v>
+        <v>0.1375119429840481</v>
       </c>
       <c r="D7">
-        <v>0.3275236737024159</v>
+        <v>0.3434028262048088</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.1857417632799</v>
+        <v>0.5985791185365059</v>
       </c>
       <c r="G7">
-        <v>0.5612061613911337</v>
+        <v>0.2826263743224757</v>
       </c>
       <c r="H7">
-        <v>0.7083292777990664</v>
+        <v>0.2793054126130556</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3303155278862562</v>
+        <v>0.3539757445323204</v>
       </c>
       <c r="K7">
-        <v>0.2908312061828155</v>
+        <v>0.8993384118054166</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.514136102814362</v>
+        <v>1.131502727982166</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3667652300102588</v>
+        <v>1.015042114868464</v>
       </c>
       <c r="C8">
-        <v>0.05698278739802731</v>
+        <v>0.1572145735950272</v>
       </c>
       <c r="D8">
-        <v>0.3434336339579431</v>
+        <v>0.4078265390471927</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.180193229632465</v>
+        <v>0.6275374536499143</v>
       </c>
       <c r="G8">
-        <v>0.5543497330687472</v>
+        <v>0.284771857667323</v>
       </c>
       <c r="H8">
-        <v>0.6999961837329138</v>
+        <v>0.2721760885989539</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3446921518173269</v>
+        <v>0.4178438080738687</v>
       </c>
       <c r="K8">
-        <v>0.3481444000663032</v>
+        <v>1.07994704025856</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.482491055285024</v>
+        <v>1.121608370421214</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4724532020235586</v>
+        <v>1.358473858095778</v>
       </c>
       <c r="C9">
-        <v>0.07000270127902297</v>
+        <v>0.195867356722772</v>
       </c>
       <c r="D9">
-        <v>0.3757681964598873</v>
+        <v>0.5366362059468202</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.174860992600429</v>
+        <v>0.695683784412509</v>
       </c>
       <c r="G9">
-        <v>0.5440935633866033</v>
+        <v>0.2962733375340108</v>
       </c>
       <c r="H9">
-        <v>0.6861562691596532</v>
+        <v>0.2626403936901127</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3744865127727905</v>
+        <v>0.5474895790208762</v>
       </c>
       <c r="K9">
-        <v>0.459906691479631</v>
+        <v>1.434242118567795</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.432363357523712</v>
+        <v>1.126904089459757</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5499590261626679</v>
+        <v>1.611997765617048</v>
       </c>
       <c r="C10">
-        <v>0.07949156352151476</v>
+        <v>0.2243418631728247</v>
       </c>
       <c r="D10">
-        <v>0.4002111384830869</v>
+        <v>0.6332671063341024</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.174329389647895</v>
+        <v>0.7538091650949212</v>
       </c>
       <c r="G10">
-        <v>0.5385103590625491</v>
+        <v>0.3098792237257797</v>
       </c>
       <c r="H10">
-        <v>0.6775112198893751</v>
+        <v>0.2586534962319291</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3973577333293719</v>
+        <v>0.6462025627803598</v>
       </c>
       <c r="K10">
-        <v>0.5416072628156599</v>
+        <v>1.695340052936785</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.402819489974519</v>
+        <v>1.148003492555873</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5851823495938504</v>
+        <v>1.727775240084497</v>
       </c>
       <c r="C11">
-        <v>0.08379078986015998</v>
+        <v>0.2373284948925942</v>
       </c>
       <c r="D11">
-        <v>0.411479026979606</v>
+        <v>0.6777759494565316</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.174823657823964</v>
+        <v>0.7822704791107498</v>
       </c>
       <c r="G11">
-        <v>0.5363959576298356</v>
+        <v>0.3173562484245593</v>
       </c>
       <c r="H11">
-        <v>0.6739087525737233</v>
+        <v>0.2575685777864933</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4079767040252023</v>
+        <v>0.6920476450798532</v>
       </c>
       <c r="K11">
-        <v>0.5786802844975512</v>
+        <v>1.81446817427377</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.390964005041496</v>
+        <v>1.161848354436074</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.598514960558731</v>
+        <v>1.771697381023245</v>
       </c>
       <c r="C12">
-        <v>0.08541621911284381</v>
+        <v>0.2422524174795626</v>
       </c>
       <c r="D12">
-        <v>0.4157671187782057</v>
+        <v>0.6947197111200012</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.175116713587414</v>
+        <v>0.7933624515446809</v>
       </c>
       <c r="G12">
-        <v>0.535656596757768</v>
+        <v>0.320387772166697</v>
       </c>
       <c r="H12">
-        <v>0.6725920530879677</v>
+        <v>0.2572691162762055</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4120287440035639</v>
+        <v>0.7095597270707685</v>
       </c>
       <c r="K12">
-        <v>0.5927048750546362</v>
+        <v>1.859644914934762</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.386702682016335</v>
+        <v>1.167747314302801</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5956438093934935</v>
+        <v>1.762234160788012</v>
       </c>
       <c r="C13">
-        <v>0.08506627091112762</v>
+        <v>0.2411916655271256</v>
       </c>
       <c r="D13">
-        <v>0.4148426622474233</v>
+        <v>0.6910664334544947</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.175048888845438</v>
+        <v>0.7909592212498211</v>
       </c>
       <c r="G13">
-        <v>0.5358131020176415</v>
+        <v>0.3197257287369411</v>
       </c>
       <c r="H13">
-        <v>0.6728735164499042</v>
+        <v>0.2573285476522074</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4111546921247964</v>
+        <v>0.7057811733583748</v>
       </c>
       <c r="K13">
-        <v>0.5896850707463557</v>
+        <v>1.849912135954497</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.387610285124339</v>
+        <v>1.166446923897638</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5862793499384509</v>
+        <v>1.731387051667809</v>
       </c>
       <c r="C14">
-        <v>0.08392456750618749</v>
+        <v>0.2377334571863656</v>
       </c>
       <c r="D14">
-        <v>0.4118313873534305</v>
+        <v>0.6791680748023339</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.174845645352775</v>
+        <v>0.7831765810324072</v>
       </c>
       <c r="G14">
-        <v>0.5363339002745846</v>
+        <v>0.3176015532473784</v>
       </c>
       <c r="H14">
-        <v>0.6737994754499326</v>
+        <v>0.2575416695046897</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4083094492646069</v>
+        <v>0.6934852393842164</v>
       </c>
       <c r="K14">
-        <v>0.5798343842560598</v>
+        <v>1.81818349085836</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.390608850474592</v>
+        <v>1.162320241960657</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5805425842355874</v>
+        <v>1.712503162012155</v>
       </c>
       <c r="C15">
-        <v>0.08322490019263284</v>
+        <v>0.2356160500948477</v>
       </c>
       <c r="D15">
-        <v>0.4099896480025507</v>
+        <v>0.6718919158358574</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.174734943561774</v>
+        <v>0.7784511549300106</v>
       </c>
       <c r="G15">
-        <v>0.5366608937140143</v>
+        <v>0.3163269599946759</v>
       </c>
       <c r="H15">
-        <v>0.674372834739124</v>
+        <v>0.2576869199551624</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4065706751553222</v>
+        <v>0.6859738665952193</v>
       </c>
       <c r="K15">
-        <v>0.573798687206363</v>
+        <v>1.798757765892532</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.392475271210103</v>
+        <v>1.159879393065665</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5476563422012646</v>
+        <v>1.604441733933101</v>
       </c>
       <c r="C16">
-        <v>0.07921024167347923</v>
+        <v>0.2234939427041098</v>
       </c>
       <c r="D16">
-        <v>0.3994777307320021</v>
+        <v>0.6303702743258839</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.174311903427096</v>
+        <v>0.7519917961629119</v>
       </c>
       <c r="G16">
-        <v>0.5386571129313609</v>
+        <v>0.3094177504538536</v>
       </c>
       <c r="H16">
-        <v>0.6777532936506958</v>
+        <v>0.258739614801577</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3966680786244865</v>
+        <v>0.6432267670334966</v>
       </c>
       <c r="K16">
-        <v>0.5391825152649972</v>
+        <v>1.687563091104721</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.40362617617123</v>
+        <v>1.147187975426434</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5274723424518584</v>
+        <v>1.538274851820887</v>
       </c>
       <c r="C17">
-        <v>0.07674287088138954</v>
+        <v>0.2160669183586776</v>
       </c>
       <c r="D17">
-        <v>0.3930669519477306</v>
+        <v>0.6050461014523023</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.174240941004001</v>
+        <v>0.7362936134100408</v>
       </c>
       <c r="G17">
-        <v>0.5399907914509114</v>
+        <v>0.3055193110232182</v>
       </c>
       <c r="H17">
-        <v>0.6799116651333463</v>
+        <v>0.2595766008328155</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3906481471247929</v>
+        <v>0.617254849427141</v>
       </c>
       <c r="K17">
-        <v>0.517922239324804</v>
+        <v>1.619449368053608</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.410872845838966</v>
+        <v>1.140521319900259</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5158598397972582</v>
+        <v>1.500258615132935</v>
       </c>
       <c r="C18">
-        <v>0.07532208196114709</v>
+        <v>0.2117981496723615</v>
       </c>
       <c r="D18">
-        <v>0.3893936467115111</v>
+        <v>0.5905315264758144</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.174269408072071</v>
+        <v>0.7274530245799156</v>
       </c>
       <c r="G18">
-        <v>0.5407979228002802</v>
+        <v>0.3033972759921753</v>
       </c>
       <c r="H18">
-        <v>0.6811841845528264</v>
+        <v>0.2601261859808446</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3872058547183315</v>
+        <v>0.6024039231361371</v>
       </c>
       <c r="K18">
-        <v>0.5056851862775318</v>
+        <v>1.580304471013164</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.4151900307467</v>
+        <v>1.137083646212403</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5119275189797179</v>
+        <v>1.487393600301232</v>
       </c>
       <c r="C19">
-        <v>0.07484075182087224</v>
+        <v>0.2103533037701197</v>
       </c>
       <c r="D19">
-        <v>0.3881523399123523</v>
+        <v>0.5856256445077861</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.174290944763442</v>
+        <v>0.7244914433830161</v>
       </c>
       <c r="G19">
-        <v>0.5410780752928801</v>
+        <v>0.3026990034127977</v>
       </c>
       <c r="H19">
-        <v>0.6816203762107023</v>
+        <v>0.2603237815063366</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3860438256243128</v>
+        <v>0.5973901920616953</v>
       </c>
       <c r="K19">
-        <v>0.5015404594148265</v>
+        <v>1.567055802057865</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.416677353236764</v>
+        <v>1.135986523223167</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5296213002316108</v>
+        <v>1.545314057879665</v>
       </c>
       <c r="C20">
-        <v>0.0770056954078342</v>
+        <v>0.2168572116647738</v>
       </c>
       <c r="D20">
-        <v>0.3937479422006049</v>
+        <v>0.6077365316745329</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.174241324292908</v>
+        <v>0.7379450257675586</v>
       </c>
       <c r="G20">
-        <v>0.5398446746232395</v>
+        <v>0.3059217564564847</v>
       </c>
       <c r="H20">
-        <v>0.6796786860636672</v>
+        <v>0.2594804003472788</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3912868872340312</v>
+        <v>0.6200104405595681</v>
       </c>
       <c r="K20">
-        <v>0.5201863386091077</v>
+        <v>1.62669674280761</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.410085992889222</v>
+        <v>1.14118960822033</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5890300791917582</v>
+        <v>1.740445304215712</v>
       </c>
       <c r="C21">
-        <v>0.0842599847260459</v>
+        <v>0.2387490380446167</v>
       </c>
       <c r="D21">
-        <v>0.4127152983071198</v>
+        <v>0.6826604062400747</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.174902468855649</v>
+        <v>0.7854538031116789</v>
       </c>
       <c r="G21">
-        <v>0.5361792639536418</v>
+        <v>0.3182199189980963</v>
       </c>
       <c r="H21">
-        <v>0.6735262103963322</v>
+        <v>0.2574759931037391</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4091443284689262</v>
+        <v>0.6970926039498408</v>
       </c>
       <c r="K21">
-        <v>0.5827281601744687</v>
+        <v>1.827501062462659</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.389721906492696</v>
+        <v>1.163514160607861</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6278236009427189</v>
+        <v>1.868447475064841</v>
       </c>
       <c r="C22">
-        <v>0.08898591091815433</v>
+        <v>0.2530932707576881</v>
       </c>
       <c r="D22">
-        <v>0.4252349666077464</v>
+        <v>0.7321527508410384</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.175951772769579</v>
+        <v>0.8183477385032774</v>
       </c>
       <c r="G22">
-        <v>0.5341411738586288</v>
+        <v>0.3274317288013293</v>
       </c>
       <c r="H22">
-        <v>0.6697819393632187</v>
+        <v>0.2568185538468697</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4209951039843105</v>
+        <v>0.74836205153035</v>
       </c>
       <c r="K22">
-        <v>0.6235199680217818</v>
+        <v>1.959127763782135</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.377742426100525</v>
+        <v>1.181952870596518</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6071220823030217</v>
+        <v>1.80008171164323</v>
       </c>
       <c r="C23">
-        <v>0.0864650182089548</v>
+        <v>0.2454336508520356</v>
       </c>
       <c r="D23">
-        <v>0.4185417559513382</v>
+        <v>0.7056861989154584</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.175335252958547</v>
+        <v>0.8006145649493845</v>
       </c>
       <c r="G23">
-        <v>0.535196186142656</v>
+        <v>0.3224025498412573</v>
       </c>
       <c r="H23">
-        <v>0.6717550089410054</v>
+        <v>0.2571074380788048</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4146536652061883</v>
+        <v>0.7209112553508277</v>
       </c>
       <c r="K23">
-        <v>0.6017564562402242</v>
+        <v>1.888835324684834</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.384014343754984</v>
+        <v>1.171743786960633</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5286497826913035</v>
+        <v>1.542131559253022</v>
       </c>
       <c r="C24">
-        <v>0.07688687948576955</v>
+        <v>0.216499916653504</v>
       </c>
       <c r="D24">
-        <v>0.3934400280658963</v>
+        <v>0.6065200499082266</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.174240935256691</v>
+        <v>0.737197849331011</v>
       </c>
       <c r="G24">
-        <v>0.5399106082646838</v>
+        <v>0.305739440622574</v>
       </c>
       <c r="H24">
-        <v>0.6797839173335518</v>
+        <v>0.2595236800571854</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3909980547511793</v>
+        <v>0.6187643877467792</v>
       </c>
       <c r="K24">
-        <v>0.5191627836107671</v>
+        <v>1.623420160335002</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.410441258840294</v>
+        <v>1.140886247907233</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4438850789687194</v>
+        <v>1.265412541526587</v>
       </c>
       <c r="C25">
-        <v>0.06649367299102948</v>
+        <v>0.1854024842471347</v>
       </c>
       <c r="D25">
-        <v>0.3668998584732321</v>
+        <v>0.5014765548720561</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.175709139576362</v>
+        <v>0.6759195399004341</v>
       </c>
       <c r="G25">
-        <v>0.5465258931144419</v>
+        <v>0.2923104082861698</v>
       </c>
       <c r="H25">
-        <v>0.6896327324470732</v>
+        <v>0.2647134275854341</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3662543629464636</v>
+        <v>0.5118684550587034</v>
       </c>
       <c r="K25">
-        <v>0.4297422363461862</v>
+        <v>1.3383113107285</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.444645865868821</v>
+        <v>1.122613142559445</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_49/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.062415517985841</v>
+        <v>0.8710569983967389</v>
       </c>
       <c r="C2">
-        <v>0.1625517919352859</v>
+        <v>0.1741479817883231</v>
       </c>
       <c r="D2">
-        <v>0.4254326791273968</v>
+        <v>0.4473533163711352</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6361127786599283</v>
+        <v>0.6957620287602069</v>
       </c>
       <c r="G2">
-        <v>0.2858219823560972</v>
+        <v>0.3049173232519848</v>
       </c>
       <c r="H2">
-        <v>0.2705343860548624</v>
+        <v>1.152767248324693E-07</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0004753478715762149</v>
       </c>
       <c r="J2">
-        <v>0.4354195007930883</v>
+        <v>0.2843931590897952</v>
       </c>
       <c r="K2">
-        <v>1.128866155899004</v>
+        <v>0.2495409617439179</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.494061657097248</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.9755205630620765</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.120523635060593</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.7671333672377543</v>
+      </c>
+      <c r="Q2">
+        <v>1.189806701782715</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9250584753077362</v>
+        <v>0.7588475749523695</v>
       </c>
       <c r="C3">
-        <v>0.1470721289467889</v>
+        <v>0.1549488723376129</v>
       </c>
       <c r="D3">
-        <v>0.3745459713504999</v>
+        <v>0.3959653616226433</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6120746312994925</v>
+        <v>0.6596085363710031</v>
       </c>
       <c r="G3">
-        <v>0.2833112948506553</v>
+        <v>0.2951127668882236</v>
       </c>
       <c r="H3">
-        <v>0.2756248648390809</v>
+        <v>0.0001798440948872493</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0004321608343365035</v>
       </c>
       <c r="J3">
-        <v>0.3847595751089017</v>
+        <v>0.2834494372296135</v>
       </c>
       <c r="K3">
-        <v>0.9869800354539109</v>
+        <v>0.251688038136221</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.4381626587673964</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.8517585964836769</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.125487359096269</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.7866075187335753</v>
+      </c>
+      <c r="Q3">
+        <v>1.166798791176205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8407521517825671</v>
+        <v>0.6895545731737229</v>
       </c>
       <c r="C4">
-        <v>0.1375642112947162</v>
+        <v>0.1432867988026487</v>
       </c>
       <c r="D4">
-        <v>0.3435724611938582</v>
+        <v>0.3644838323201469</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5986498621923459</v>
+        <v>0.6377750772488255</v>
       </c>
       <c r="G4">
-        <v>0.2826281742978409</v>
+        <v>0.2893673635357246</v>
       </c>
       <c r="H4">
-        <v>0.2792840722092507</v>
+        <v>0.0004732768385680153</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0005268055669866989</v>
       </c>
       <c r="J4">
-        <v>0.3541429358287189</v>
+        <v>0.283069175609441</v>
       </c>
       <c r="K4">
-        <v>0.8998176190789877</v>
+        <v>0.2531825353525967</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.4037983825424902</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.7756273797245399</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.131463189064633</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.7991363061773527</v>
+      </c>
+      <c r="Q4">
+        <v>1.153664519170036</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8063946786542999</v>
+        <v>0.6605954103339116</v>
       </c>
       <c r="C5">
-        <v>0.1336879855119975</v>
+        <v>0.1389280839686933</v>
       </c>
       <c r="D5">
-        <v>0.3310120235011738</v>
+        <v>0.3517982562842832</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5934986760685277</v>
+        <v>0.6286076803514291</v>
       </c>
       <c r="G5">
-        <v>0.2825554911936834</v>
+        <v>0.2868316284053307</v>
       </c>
       <c r="H5">
-        <v>0.2809049703600124</v>
+        <v>0.0006373401507864251</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0006614603970014343</v>
       </c>
       <c r="J5">
-        <v>0.3417784731923206</v>
+        <v>0.2828273487076416</v>
       </c>
       <c r="K5">
-        <v>0.8642778521252126</v>
+        <v>0.2536219495001948</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3897726224258946</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.7446048746000571</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.134603794312696</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.8044756363912775</v>
+      </c>
+      <c r="Q5">
+        <v>1.147716215217869</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8006892507993371</v>
+        <v>0.6550195687597125</v>
       </c>
       <c r="C6">
-        <v>0.1330442170466455</v>
+        <v>0.1386534246292968</v>
       </c>
       <c r="D6">
-        <v>0.3289298997973162</v>
+        <v>0.3498501195996937</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5926621665231835</v>
+        <v>0.6266539394523036</v>
       </c>
       <c r="G6">
-        <v>0.2825555570278908</v>
+        <v>0.286096258473421</v>
       </c>
       <c r="H6">
-        <v>0.2811818292384061</v>
+        <v>0.0006677819853220246</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0007748144737584894</v>
       </c>
       <c r="J6">
-        <v>0.339731825740472</v>
+        <v>0.2826243047781034</v>
       </c>
       <c r="K6">
-        <v>0.8583750078516914</v>
+        <v>0.2534377890828416</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3874329207206131</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.7395007632932362</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.135167017899775</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.8054864189029338</v>
+      </c>
+      <c r="Q6">
+        <v>1.145720732489195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8402888154462573</v>
+        <v>0.6870784635488576</v>
       </c>
       <c r="C7">
-        <v>0.1375119429840481</v>
+        <v>0.1444521117137469</v>
       </c>
       <c r="D7">
-        <v>0.3434028262048088</v>
+        <v>0.3647436072067478</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5985791185365059</v>
+        <v>0.6364588004161291</v>
       </c>
       <c r="G7">
-        <v>0.2826263743224757</v>
+        <v>0.2884640680431332</v>
       </c>
       <c r="H7">
-        <v>0.2793054126130556</v>
+        <v>0.0004766404457252627</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0007575104226535956</v>
       </c>
       <c r="J7">
-        <v>0.3539757445323204</v>
+        <v>0.282613709541728</v>
       </c>
       <c r="K7">
-        <v>0.8993384118054166</v>
+        <v>0.2524799810239848</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.4035827344991958</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.775344720262467</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.131502727982166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.7995347848465144</v>
+      </c>
+      <c r="Q7">
+        <v>1.150794299423822</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.015042114868464</v>
+        <v>0.8296617038216709</v>
       </c>
       <c r="C8">
-        <v>0.1572145735950272</v>
+        <v>0.1691350570980319</v>
       </c>
       <c r="D8">
-        <v>0.4078265390471927</v>
+        <v>0.430192038114086</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6275374536499143</v>
+        <v>0.6816410651920535</v>
       </c>
       <c r="G8">
-        <v>0.284771857667323</v>
+        <v>0.3003301979379032</v>
       </c>
       <c r="H8">
-        <v>0.2721760885989539</v>
+        <v>2.321975217034478E-05</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.0007103526753473588</v>
       </c>
       <c r="J8">
-        <v>0.4178438080738687</v>
+        <v>0.2834312984422951</v>
       </c>
       <c r="K8">
-        <v>1.07994704025856</v>
+        <v>0.2493130185088539</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.4747599198718291</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.9330540679724493</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.121608370421214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.7742079214507385</v>
+      </c>
+      <c r="Q8">
+        <v>1.177983769916693</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.358473858095778</v>
+        <v>1.109930223257209</v>
       </c>
       <c r="C9">
-        <v>0.195867356722772</v>
+        <v>0.216445428599215</v>
       </c>
       <c r="D9">
-        <v>0.5366362059468202</v>
+        <v>0.5584672634643084</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.695683784412509</v>
+        <v>0.7755087235908249</v>
       </c>
       <c r="G9">
-        <v>0.2962733375340108</v>
+        <v>0.3274845388599132</v>
       </c>
       <c r="H9">
-        <v>0.2626403936901127</v>
+        <v>0.0006815514196534256</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.001296505304384965</v>
       </c>
       <c r="J9">
-        <v>0.5474895790208762</v>
+        <v>0.2874819275498055</v>
       </c>
       <c r="K9">
-        <v>1.434242118567795</v>
+        <v>0.2458158485098956</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.6142171503655902</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.241143882600284</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.126904089459757</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.7285738262832133</v>
+      </c>
+      <c r="Q9">
+        <v>1.244611431394247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.611997765617048</v>
+        <v>1.309796439035438</v>
       </c>
       <c r="C10">
-        <v>0.2243418631728247</v>
+        <v>0.2509749556284504</v>
       </c>
       <c r="D10">
-        <v>0.6332671063341024</v>
+        <v>0.6364438567245543</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7538091650949212</v>
+        <v>0.8332096305950074</v>
       </c>
       <c r="G10">
-        <v>0.3098792237257797</v>
+        <v>0.3445771326798095</v>
       </c>
       <c r="H10">
-        <v>0.2586534962319291</v>
+        <v>0.002274883367010982</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.002538413808829354</v>
       </c>
       <c r="J10">
-        <v>0.6462025627803598</v>
+        <v>0.2893259852161236</v>
       </c>
       <c r="K10">
-        <v>1.695340052936785</v>
+        <v>0.2421036436065407</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.6840121210484256</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.462073503111839</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.148003492555873</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.7002644121608945</v>
+      </c>
+      <c r="Q10">
+        <v>1.285097701342693</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.727775240084497</v>
+        <v>1.369181618168113</v>
       </c>
       <c r="C11">
-        <v>0.2373284948925942</v>
+        <v>0.2540356281659371</v>
       </c>
       <c r="D11">
-        <v>0.6777759494565316</v>
+        <v>0.5308291539991785</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7822704791107498</v>
+        <v>0.7488243647935775</v>
       </c>
       <c r="G11">
-        <v>0.3173562484245593</v>
+        <v>0.3166107888939251</v>
       </c>
       <c r="H11">
-        <v>0.2575685777864933</v>
+        <v>0.02050784328134014</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.003404987873434351</v>
       </c>
       <c r="J11">
-        <v>0.6920476450798532</v>
+        <v>0.2724976549521614</v>
       </c>
       <c r="K11">
-        <v>1.81446817427377</v>
+        <v>0.2245767295124566</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.4612113840887417</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.517066773131461</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.161848354436074</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.7075116455019312</v>
+      </c>
+      <c r="Q11">
+        <v>1.190700024375602</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.771697381023245</v>
+        <v>1.380107223688043</v>
       </c>
       <c r="C12">
-        <v>0.2422524174795626</v>
+        <v>0.2473196032035077</v>
       </c>
       <c r="D12">
-        <v>0.6947197111200012</v>
+        <v>0.4336537472108262</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.7933624515446809</v>
+        <v>0.6707237827993353</v>
       </c>
       <c r="G12">
-        <v>0.320387772166697</v>
+        <v>0.2912786567537253</v>
       </c>
       <c r="H12">
-        <v>0.2572691162762055</v>
+        <v>0.05880822749773529</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.003461949480368709</v>
       </c>
       <c r="J12">
-        <v>0.7095597270707685</v>
+        <v>0.2587001398779947</v>
       </c>
       <c r="K12">
-        <v>1.859644914934762</v>
+        <v>0.2119517434114861</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2990887316709774</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.515911500249672</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.167747314302801</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.7210626455991402</v>
+      </c>
+      <c r="Q12">
+        <v>1.108138412126721</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.762234160788012</v>
+        <v>1.350986325503925</v>
       </c>
       <c r="C13">
-        <v>0.2411916655271256</v>
+        <v>0.2347076060546129</v>
       </c>
       <c r="D13">
-        <v>0.6910664334544947</v>
+        <v>0.338522795976985</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7909592212498211</v>
+        <v>0.5912554937058943</v>
       </c>
       <c r="G13">
-        <v>0.3197257287369411</v>
+        <v>0.2651214366240566</v>
       </c>
       <c r="H13">
-        <v>0.2573285476522074</v>
+        <v>0.1141268348199702</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.003226429845931023</v>
       </c>
       <c r="J13">
-        <v>0.7057811733583748</v>
+        <v>0.2456878457857741</v>
       </c>
       <c r="K13">
-        <v>1.849912135954497</v>
+        <v>0.2012061462487829</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1745302064709975</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.471728214859525</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.166446923897638</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.7402279476013049</v>
+      </c>
+      <c r="Q13">
+        <v>1.025400050918734</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.731387051667809</v>
+        <v>1.311923135689739</v>
       </c>
       <c r="C14">
-        <v>0.2377334571863656</v>
+        <v>0.2236632573273454</v>
       </c>
       <c r="D14">
-        <v>0.6791680748023339</v>
+        <v>0.2747543656177669</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7831765810324072</v>
+        <v>0.5356774193793257</v>
       </c>
       <c r="G14">
-        <v>0.3176015532473784</v>
+        <v>0.2464622765708029</v>
       </c>
       <c r="H14">
-        <v>0.2575416695046897</v>
+        <v>0.1631760870195791</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.003017660840676228</v>
       </c>
       <c r="J14">
-        <v>0.6934852393842164</v>
+        <v>0.236911581265133</v>
       </c>
       <c r="K14">
-        <v>1.81818349085836</v>
+        <v>0.1944627195247826</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1102793809434104</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.421549501427592</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.162320241960657</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.7564255022086002</v>
+      </c>
+      <c r="Q14">
+        <v>0.9674062024117944</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.712503162012155</v>
+        <v>1.293115277133893</v>
       </c>
       <c r="C15">
-        <v>0.2356160500948477</v>
+        <v>0.220197948544282</v>
       </c>
       <c r="D15">
-        <v>0.6718919158358574</v>
+        <v>0.2587390987466875</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7784511549300106</v>
+        <v>0.5211680301980834</v>
       </c>
       <c r="G15">
-        <v>0.3163269599946759</v>
+        <v>0.2414337515838696</v>
       </c>
       <c r="H15">
-        <v>0.2576869199551624</v>
+        <v>0.1755748366897194</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.003015644791237726</v>
       </c>
       <c r="J15">
-        <v>0.6859738665952193</v>
+        <v>0.2347985974454616</v>
       </c>
       <c r="K15">
-        <v>1.798757765892532</v>
+        <v>0.1929834896610885</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.09749657185833271</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.400370290051683</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.159879393065665</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.7615104600532803</v>
+      </c>
+      <c r="Q15">
+        <v>0.9522902908532274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.604441733933101</v>
+        <v>1.212386453817487</v>
       </c>
       <c r="C16">
-        <v>0.2234939427041098</v>
+        <v>0.2089150278135747</v>
       </c>
       <c r="D16">
-        <v>0.6303702743258839</v>
+        <v>0.2474532966740099</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.7519917961629119</v>
+        <v>0.5131650486205999</v>
       </c>
       <c r="G16">
-        <v>0.3094177504538536</v>
+        <v>0.2390387663907205</v>
       </c>
       <c r="H16">
-        <v>0.258739614801577</v>
+        <v>0.1623622752871228</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.002630465832821116</v>
       </c>
       <c r="J16">
-        <v>0.6432267670334966</v>
+        <v>0.2363296791864471</v>
       </c>
       <c r="K16">
-        <v>1.687563091104721</v>
+        <v>0.196226210105543</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.09662218686991508</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.315357973944231</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.147187975426434</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.768054759399611</v>
+      </c>
+      <c r="Q16">
+        <v>0.9502600170651476</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.538274851820887</v>
+        <v>1.171146780218152</v>
       </c>
       <c r="C17">
-        <v>0.2160669183586776</v>
+        <v>0.2061473924007231</v>
       </c>
       <c r="D17">
-        <v>0.6050461014523023</v>
+        <v>0.2714266232076596</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7362936134100408</v>
+        <v>0.5360044677498976</v>
       </c>
       <c r="G17">
-        <v>0.3055193110232182</v>
+        <v>0.2470281573347819</v>
       </c>
       <c r="H17">
-        <v>0.2595766008328155</v>
+        <v>0.1243622796459931</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.002475095579667297</v>
       </c>
       <c r="J17">
-        <v>0.617254849427141</v>
+        <v>0.2421637460267831</v>
       </c>
       <c r="K17">
-        <v>1.619449368053608</v>
+        <v>0.2022766996125718</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1258380050065142</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.276791011047294</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.140521319900259</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.7647171070332917</v>
+      </c>
+      <c r="Q17">
+        <v>0.9793231354409642</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.500258615132935</v>
+        <v>1.160804021318654</v>
       </c>
       <c r="C18">
-        <v>0.2117981496723615</v>
+        <v>0.209434572225021</v>
       </c>
       <c r="D18">
-        <v>0.5905315264758144</v>
+        <v>0.3330593033233384</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7274530245799156</v>
+        <v>0.5907731815929793</v>
       </c>
       <c r="G18">
-        <v>0.3033972759921753</v>
+        <v>0.2658042017793392</v>
       </c>
       <c r="H18">
-        <v>0.2601261859808446</v>
+        <v>0.07153987555405905</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.002205313572518186</v>
       </c>
       <c r="J18">
-        <v>0.6024039231361371</v>
+        <v>0.252767682140572</v>
       </c>
       <c r="K18">
-        <v>1.580304471013164</v>
+        <v>0.212073487193015</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2044292691402134</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.273430166270373</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.137083646212403</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.7527610872686452</v>
+      </c>
+      <c r="Q18">
+        <v>1.041294595042118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.487393600301232</v>
+        <v>1.171962001522076</v>
       </c>
       <c r="C19">
-        <v>0.2103533037701197</v>
+        <v>0.2197853089748634</v>
       </c>
       <c r="D19">
-        <v>0.5856256445077861</v>
+        <v>0.4289375848573229</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.7244914433830161</v>
+        <v>0.6689856229925581</v>
       </c>
       <c r="G19">
-        <v>0.3026990034127977</v>
+        <v>0.2912651099455914</v>
       </c>
       <c r="H19">
-        <v>0.2603237815063366</v>
+        <v>0.02657964109898359</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.002378485483099269</v>
       </c>
       <c r="J19">
-        <v>0.5973901920616953</v>
+        <v>0.2659771462579101</v>
       </c>
       <c r="K19">
-        <v>1.567055802057865</v>
+        <v>0.2234753021090832</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3477509665611223</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.298859094108593</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.135986523223167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.7373099961129839</v>
+      </c>
+      <c r="Q19">
+        <v>1.122941778491438</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.545314057879665</v>
+        <v>1.2506303257517</v>
       </c>
       <c r="C20">
-        <v>0.2168572116647738</v>
+        <v>0.245722179925977</v>
       </c>
       <c r="D20">
-        <v>0.6077365316745329</v>
+        <v>0.6165812873665004</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.7379450257675586</v>
+        <v>0.8136800689941168</v>
       </c>
       <c r="G20">
-        <v>0.3059217564564847</v>
+        <v>0.3371259700800735</v>
       </c>
       <c r="H20">
-        <v>0.2594804003472788</v>
+        <v>0.001756450407181198</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.002889241263501319</v>
       </c>
       <c r="J20">
-        <v>0.6200104405595681</v>
+        <v>0.2873057474856893</v>
       </c>
       <c r="K20">
-        <v>1.62669674280761</v>
+        <v>0.2407950088789903</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.6642307958291696</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.404291770487788</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.14118960822033</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.7089410821253708</v>
+      </c>
+      <c r="Q20">
+        <v>1.264970038376219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.740445304215712</v>
+        <v>1.409677289922342</v>
       </c>
       <c r="C21">
-        <v>0.2387490380446167</v>
+        <v>0.2743704698787184</v>
       </c>
       <c r="D21">
-        <v>0.6826604062400747</v>
+        <v>0.7028769373308137</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7854538031116789</v>
+        <v>0.8795532196478462</v>
       </c>
       <c r="G21">
-        <v>0.3182199189980963</v>
+        <v>0.3577140706405686</v>
       </c>
       <c r="H21">
-        <v>0.2574759931037391</v>
+        <v>0.003326389370048033</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.00398071409575973</v>
       </c>
       <c r="J21">
-        <v>0.6970926039498408</v>
+        <v>0.2925066865871173</v>
       </c>
       <c r="K21">
-        <v>1.827501062462659</v>
+        <v>0.2414939084517016</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.7686254811835909</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.581748486720471</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.163514160607861</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.6851229192865489</v>
+      </c>
+      <c r="Q21">
+        <v>1.319804561402606</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.868447475064841</v>
+        <v>1.514510644132116</v>
       </c>
       <c r="C22">
-        <v>0.2530932707576881</v>
+        <v>0.2907781356280452</v>
       </c>
       <c r="D22">
-        <v>0.7321527508410384</v>
+        <v>0.7501728051384191</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.8183477385032774</v>
+        <v>0.9180993926031249</v>
       </c>
       <c r="G22">
-        <v>0.3274317288013293</v>
+        <v>0.3705857329333639</v>
       </c>
       <c r="H22">
-        <v>0.2568185538468697</v>
+        <v>0.004601747277087953</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.004550286586946228</v>
       </c>
       <c r="J22">
-        <v>0.74836205153035</v>
+        <v>0.2956841559377352</v>
       </c>
       <c r="K22">
-        <v>1.959127763782135</v>
+        <v>0.2421424736927271</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.8202973580874726</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.694955443217083</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.181952870596518</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.670549811753645</v>
+      </c>
+      <c r="Q22">
+        <v>1.353932078996678</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.80008171164323</v>
+        <v>1.461128294717241</v>
       </c>
       <c r="C23">
-        <v>0.2454336508520356</v>
+        <v>0.2804961892058202</v>
       </c>
       <c r="D23">
-        <v>0.7056861989154584</v>
+        <v>0.724391555435659</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.8006145649493845</v>
+        <v>0.8988751701688926</v>
       </c>
       <c r="G23">
-        <v>0.3224025498412573</v>
+        <v>0.3646930908134323</v>
       </c>
       <c r="H23">
-        <v>0.2571074380788048</v>
+        <v>0.003901658694140497</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.003951789542893103</v>
       </c>
       <c r="J23">
-        <v>0.7209112553508277</v>
+        <v>0.2944852558606641</v>
       </c>
       <c r="K23">
-        <v>1.888835324684834</v>
+        <v>0.2425844773468491</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.7927373878096518</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.634370522582429</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.171743786960633</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.6777175222242988</v>
+      </c>
+      <c r="Q23">
+        <v>1.338830527810558</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.542131559253022</v>
+        <v>1.254396747795994</v>
       </c>
       <c r="C24">
-        <v>0.216499916653504</v>
+        <v>0.2443155701653694</v>
       </c>
       <c r="D24">
-        <v>0.6065200499082266</v>
+        <v>0.6279370707004261</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.737197849331011</v>
+        <v>0.8249757639609641</v>
       </c>
       <c r="G24">
-        <v>0.305739440622574</v>
+        <v>0.3415715259379724</v>
       </c>
       <c r="H24">
-        <v>0.2595236800571854</v>
+        <v>0.001728530517486782</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.002434724173625114</v>
       </c>
       <c r="J24">
-        <v>0.6187643877467792</v>
+        <v>0.2896124862237386</v>
       </c>
       <c r="K24">
-        <v>1.623420160335002</v>
+        <v>0.243429498414951</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.6885320661274648</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.405259390578436</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.140886247907233</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.7070298709424243</v>
+      </c>
+      <c r="Q24">
+        <v>1.279224530148767</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.265412541526587</v>
+        <v>1.030589638341269</v>
       </c>
       <c r="C25">
-        <v>0.1854024842471347</v>
+        <v>0.2057754943109131</v>
       </c>
       <c r="D25">
-        <v>0.5014765548720561</v>
+        <v>0.5244578802050626</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6759195399004341</v>
+        <v>0.7475935113386569</v>
       </c>
       <c r="G25">
-        <v>0.2923104082861698</v>
+        <v>0.3183040891648474</v>
       </c>
       <c r="H25">
-        <v>0.2647134275854341</v>
+        <v>0.0003223152003291041</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001416093428409759</v>
       </c>
       <c r="J25">
-        <v>0.5118684550587034</v>
+        <v>0.2853955738720444</v>
       </c>
       <c r="K25">
-        <v>1.3383113107285</v>
+        <v>0.2453400407033577</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.5764372233061579</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.158113473157215</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.122613142559445</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.7411312501750196</v>
+      </c>
+      <c r="Q25">
+        <v>1.220628562614849</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_49/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8710569983967389</v>
+        <v>0.8466930167601845</v>
       </c>
       <c r="C2">
-        <v>0.1741479817883231</v>
+        <v>0.1836136562349822</v>
       </c>
       <c r="D2">
-        <v>0.4473533163711352</v>
+        <v>0.454114046234821</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6957620287602069</v>
+        <v>0.6772881866968774</v>
       </c>
       <c r="G2">
-        <v>0.3049173232519848</v>
+        <v>0.2736335714195874</v>
       </c>
       <c r="H2">
-        <v>1.152767248324693E-07</v>
+        <v>2.358807349445158E-07</v>
       </c>
       <c r="I2">
-        <v>0.0004753478715762149</v>
+        <v>0.00064935673654265</v>
       </c>
       <c r="J2">
-        <v>0.2843931590897952</v>
+        <v>0.3087765226526642</v>
       </c>
       <c r="K2">
-        <v>0.2495409617439179</v>
+        <v>0.2332762465279785</v>
       </c>
       <c r="L2">
-        <v>0.494061657097248</v>
+        <v>0.1316348169752377</v>
       </c>
       <c r="M2">
-        <v>0.9755205630620765</v>
+        <v>0.05351773117733138</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.4948202543684488</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.977808652870209</v>
       </c>
       <c r="P2">
-        <v>0.7671333672377543</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.189806701782715</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.7618216796065198</v>
+      </c>
+      <c r="S2">
+        <v>1.142776943941755</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7588475749523695</v>
+        <v>0.7413190882132596</v>
       </c>
       <c r="C3">
-        <v>0.1549488723376129</v>
+        <v>0.1600627925891587</v>
       </c>
       <c r="D3">
-        <v>0.3959653616226433</v>
+        <v>0.4015712996496177</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6596085363710031</v>
+        <v>0.6439839636821389</v>
       </c>
       <c r="G3">
-        <v>0.2951127668882236</v>
+        <v>0.2663128569529221</v>
       </c>
       <c r="H3">
-        <v>0.0001798440948872493</v>
+        <v>0.0001496880479079366</v>
       </c>
       <c r="I3">
-        <v>0.0004321608343365035</v>
+        <v>0.0005084568091264785</v>
       </c>
       <c r="J3">
-        <v>0.2834494372296135</v>
+        <v>0.3066547412405072</v>
       </c>
       <c r="K3">
-        <v>0.251688038136221</v>
+        <v>0.2363641764321951</v>
       </c>
       <c r="L3">
-        <v>0.4381626587673964</v>
+        <v>0.1362565452901769</v>
       </c>
       <c r="M3">
-        <v>0.8517585964836769</v>
+        <v>0.05264833085994702</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.4392120302297116</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8538221031028286</v>
       </c>
       <c r="P3">
-        <v>0.7866075187335753</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.166798791176205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.77792087714014</v>
+      </c>
+      <c r="S3">
+        <v>1.125178433355927</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6895545731737229</v>
+        <v>0.6760788648286393</v>
       </c>
       <c r="C4">
-        <v>0.1432867988026487</v>
+        <v>0.145830270514665</v>
       </c>
       <c r="D4">
-        <v>0.3644838323201469</v>
+        <v>0.3694087789004072</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6377750772488255</v>
+        <v>0.6238089231662798</v>
       </c>
       <c r="G4">
-        <v>0.2893673635357246</v>
+        <v>0.2620930484516535</v>
       </c>
       <c r="H4">
-        <v>0.0004732768385680153</v>
+        <v>0.0004144302076605211</v>
       </c>
       <c r="I4">
-        <v>0.0005268055669866989</v>
+        <v>0.0005270684335640929</v>
       </c>
       <c r="J4">
-        <v>0.283069175609441</v>
+        <v>0.3054198642612036</v>
       </c>
       <c r="K4">
-        <v>0.2531825353525967</v>
+        <v>0.2383802382745177</v>
       </c>
       <c r="L4">
-        <v>0.4037983825424902</v>
+        <v>0.1392374841420452</v>
       </c>
       <c r="M4">
-        <v>0.7756273797245399</v>
+        <v>0.05256495828906438</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.4050218803228063</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.7775396434022923</v>
       </c>
       <c r="P4">
-        <v>0.7991363061773527</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.153664519170036</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.7884080750412004</v>
+      </c>
+      <c r="S4">
+        <v>1.115131095380505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6605954103339116</v>
+        <v>0.6487384516168504</v>
       </c>
       <c r="C5">
-        <v>0.1389280839686933</v>
+        <v>0.1404702990543711</v>
       </c>
       <c r="D5">
-        <v>0.3517982562842832</v>
+        <v>0.3564546236932387</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6286076803514291</v>
+        <v>0.6152960896113058</v>
       </c>
       <c r="G5">
-        <v>0.2868316284053307</v>
+        <v>0.2601858276777307</v>
       </c>
       <c r="H5">
-        <v>0.0006373401507864251</v>
+        <v>0.0005643541304645172</v>
       </c>
       <c r="I5">
-        <v>0.0006614603970014343</v>
+        <v>0.000639287247119924</v>
       </c>
       <c r="J5">
-        <v>0.2828273487076416</v>
+        <v>0.3047926234544747</v>
       </c>
       <c r="K5">
-        <v>0.2536219495001948</v>
+        <v>0.2390262017320239</v>
       </c>
       <c r="L5">
-        <v>0.3897726224258946</v>
+        <v>0.1403734459664197</v>
       </c>
       <c r="M5">
-        <v>0.7446048746000571</v>
+        <v>0.05260287930502106</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.3910663580844442</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.7464535461667481</v>
       </c>
       <c r="P5">
-        <v>0.8044756363912775</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.147716215217869</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.7929373591295139</v>
+      </c>
+      <c r="S5">
+        <v>1.11039295408591</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6550195687597125</v>
+        <v>0.6434328603380095</v>
       </c>
       <c r="C6">
-        <v>0.1386534246292968</v>
+        <v>0.1400569614503837</v>
       </c>
       <c r="D6">
-        <v>0.3498501195996937</v>
+        <v>0.3544645246134195</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6266539394523036</v>
+        <v>0.6134511381092693</v>
       </c>
       <c r="G6">
-        <v>0.286096258473421</v>
+        <v>0.2595636178226925</v>
       </c>
       <c r="H6">
-        <v>0.0006677819853220246</v>
+        <v>0.0005922572660386205</v>
       </c>
       <c r="I6">
-        <v>0.0007748144737584894</v>
+        <v>0.0007653344800155892</v>
       </c>
       <c r="J6">
-        <v>0.2826243047781034</v>
+        <v>0.3045175987972186</v>
       </c>
       <c r="K6">
-        <v>0.2534377890828416</v>
+        <v>0.2388853082909126</v>
       </c>
       <c r="L6">
-        <v>0.3874329207206131</v>
+        <v>0.1404247066966722</v>
       </c>
       <c r="M6">
-        <v>0.7395007632932362</v>
+        <v>0.05256538538334077</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.388738463587103</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7413396236570264</v>
       </c>
       <c r="P6">
-        <v>0.8054864189029338</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.145720732489195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.7938315625537093</v>
+      </c>
+      <c r="S6">
+        <v>1.108607360545122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6870784635488576</v>
+        <v>0.6732962837242837</v>
       </c>
       <c r="C7">
-        <v>0.1444521117137469</v>
+        <v>0.1467841053922285</v>
       </c>
       <c r="D7">
-        <v>0.3647436072067478</v>
+        <v>0.3699523408121337</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6364588004161291</v>
+        <v>0.621745715054459</v>
       </c>
       <c r="G7">
-        <v>0.2884640680431332</v>
+        <v>0.26349203760401</v>
       </c>
       <c r="H7">
-        <v>0.0004766404457252627</v>
+        <v>0.0004184994940255038</v>
       </c>
       <c r="I7">
-        <v>0.0007575104226535956</v>
+        <v>0.0008007554853586285</v>
       </c>
       <c r="J7">
-        <v>0.282613709541728</v>
+        <v>0.3016690074595942</v>
       </c>
       <c r="K7">
-        <v>0.2524799810239848</v>
+        <v>0.2374765593862396</v>
       </c>
       <c r="L7">
-        <v>0.4035827344991958</v>
+        <v>0.1387583363409757</v>
       </c>
       <c r="M7">
-        <v>0.775344720262467</v>
+        <v>0.05236491118765763</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.4047861550188117</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.7765692129662796</v>
       </c>
       <c r="P7">
-        <v>0.7995347848465144</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.150794299423822</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.789030858677318</v>
+      </c>
+      <c r="S7">
+        <v>1.110574597343884</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8296617038216709</v>
+        <v>0.8065696230682704</v>
       </c>
       <c r="C8">
-        <v>0.1691350570980319</v>
+        <v>0.176272552339654</v>
       </c>
       <c r="D8">
-        <v>0.430192038114086</v>
+        <v>0.437502500537903</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6816410651920535</v>
+        <v>0.6616558039622404</v>
       </c>
       <c r="G8">
-        <v>0.3003301979379032</v>
+        <v>0.2775483385469997</v>
       </c>
       <c r="H8">
-        <v>2.321975217034478E-05</v>
+        <v>1.558952860003515E-05</v>
       </c>
       <c r="I8">
-        <v>0.0007103526753473588</v>
+        <v>0.000906739212779506</v>
       </c>
       <c r="J8">
-        <v>0.2834312984422951</v>
+        <v>0.2967935756512006</v>
       </c>
       <c r="K8">
-        <v>0.2493130185088539</v>
+        <v>0.2326747723199372</v>
       </c>
       <c r="L8">
-        <v>0.4747599198718291</v>
+        <v>0.1324017841990166</v>
       </c>
       <c r="M8">
-        <v>0.9330540679724493</v>
+        <v>0.05267204398695924</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.4755517488111565</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.9329578417626578</v>
       </c>
       <c r="P8">
-        <v>0.7742079214507385</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.177983769916693</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.7684921986657365</v>
+      </c>
+      <c r="S8">
+        <v>1.12719041759641</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.109930223257209</v>
+        <v>1.068602585928659</v>
       </c>
       <c r="C9">
-        <v>0.216445428599215</v>
+        <v>0.2346585585103043</v>
       </c>
       <c r="D9">
-        <v>0.5584672634643084</v>
+        <v>0.5690817997834188</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7755087235908249</v>
+        <v>0.7471819473709687</v>
       </c>
       <c r="G9">
-        <v>0.3274845388599132</v>
+        <v>0.3006180310784146</v>
       </c>
       <c r="H9">
-        <v>0.0006815514196534256</v>
+        <v>0.0006823292663216129</v>
       </c>
       <c r="I9">
-        <v>0.001296505304384965</v>
+        <v>0.001583204131332394</v>
       </c>
       <c r="J9">
-        <v>0.2874819275498055</v>
+        <v>0.3001394566957032</v>
       </c>
       <c r="K9">
-        <v>0.2458158485098956</v>
+        <v>0.2262902497971027</v>
       </c>
       <c r="L9">
-        <v>0.6142171503655902</v>
+        <v>0.1220997214477979</v>
       </c>
       <c r="M9">
-        <v>1.241143882600284</v>
+        <v>0.05738748760123791</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.614231675113146</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.240816925954732</v>
       </c>
       <c r="P9">
-        <v>0.7285738262832133</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.244611431394247</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.7316971332500586</v>
+      </c>
+      <c r="S9">
+        <v>1.177373152032018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.309796439035438</v>
+        <v>1.252846968374428</v>
       </c>
       <c r="C10">
-        <v>0.2509749556284504</v>
+        <v>0.2757788244571486</v>
       </c>
       <c r="D10">
-        <v>0.6364438567245543</v>
+        <v>0.6510336491884914</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8332096305950074</v>
+        <v>0.7944715733955761</v>
       </c>
       <c r="G10">
-        <v>0.3445771326798095</v>
+        <v>0.3288259859920331</v>
       </c>
       <c r="H10">
-        <v>0.002274883367010982</v>
+        <v>0.0022127959357503</v>
       </c>
       <c r="I10">
-        <v>0.002538413808829354</v>
+        <v>0.002804426121593373</v>
       </c>
       <c r="J10">
-        <v>0.2893259852161236</v>
+        <v>0.2837246216229303</v>
       </c>
       <c r="K10">
-        <v>0.2421036436065407</v>
+        <v>0.2192400878429446</v>
       </c>
       <c r="L10">
-        <v>0.6840121210484256</v>
+        <v>0.1141627261860432</v>
       </c>
       <c r="M10">
-        <v>1.462073503111839</v>
+        <v>0.06180950312034028</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.6833228577904435</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.457250047175734</v>
       </c>
       <c r="P10">
-        <v>0.7002644121608945</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.285097701342693</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.7117662440643073</v>
+      </c>
+      <c r="S10">
+        <v>1.195837828805239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.369181618168113</v>
+        <v>1.306512740350399</v>
       </c>
       <c r="C11">
-        <v>0.2540356281659371</v>
+        <v>0.2753935030642509</v>
       </c>
       <c r="D11">
-        <v>0.5308291539991785</v>
+        <v>0.5472697928456114</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7488243647935775</v>
+        <v>0.7040780690545958</v>
       </c>
       <c r="G11">
-        <v>0.3166107888939251</v>
+        <v>0.3312663324084326</v>
       </c>
       <c r="H11">
-        <v>0.02050784328134014</v>
+        <v>0.02042045880745036</v>
       </c>
       <c r="I11">
-        <v>0.003404987873434351</v>
+        <v>0.003719667118121883</v>
       </c>
       <c r="J11">
-        <v>0.2724976549521614</v>
+        <v>0.2388680590395893</v>
       </c>
       <c r="K11">
-        <v>0.2245767295124566</v>
+        <v>0.2011075005191216</v>
       </c>
       <c r="L11">
-        <v>0.4612113840887417</v>
+        <v>0.1057185967108882</v>
       </c>
       <c r="M11">
-        <v>1.517066773131461</v>
+        <v>0.05769775972203739</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.4602626194043609</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.502778869782759</v>
       </c>
       <c r="P11">
-        <v>0.7075116455019312</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.190700024375602</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.7281036001073673</v>
+      </c>
+      <c r="S11">
+        <v>1.086750634301964</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.380107223688043</v>
+        <v>1.31725917670235</v>
       </c>
       <c r="C12">
-        <v>0.2473196032035077</v>
+        <v>0.2652864520085814</v>
       </c>
       <c r="D12">
-        <v>0.4336537472108262</v>
+        <v>0.4494629991695547</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.6707237827993353</v>
+        <v>0.6263722810393233</v>
       </c>
       <c r="G12">
-        <v>0.2912786567537253</v>
+        <v>0.3193974197111871</v>
       </c>
       <c r="H12">
-        <v>0.05880822749773529</v>
+        <v>0.05872278214063442</v>
       </c>
       <c r="I12">
-        <v>0.003461949480368709</v>
+        <v>0.003758495326565026</v>
       </c>
       <c r="J12">
-        <v>0.2587001398779947</v>
+        <v>0.2184124589996159</v>
       </c>
       <c r="K12">
-        <v>0.2119517434114861</v>
+        <v>0.1895028966708967</v>
       </c>
       <c r="L12">
-        <v>0.2990887316709774</v>
+        <v>0.1011910810267427</v>
       </c>
       <c r="M12">
-        <v>1.515911500249672</v>
+        <v>0.0539007636866522</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.2981466173758633</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.497195438209019</v>
       </c>
       <c r="P12">
-        <v>0.7210626455991402</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.108138412126721</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.746724644502244</v>
+      </c>
+      <c r="S12">
+        <v>1.003456467084632</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.350986325503925</v>
+        <v>1.293229962468246</v>
       </c>
       <c r="C13">
-        <v>0.2347076060546129</v>
+        <v>0.2499776792661521</v>
       </c>
       <c r="D13">
-        <v>0.338522795976985</v>
+        <v>0.351585077123616</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5912554937058943</v>
+        <v>0.5530708916013012</v>
       </c>
       <c r="G13">
-        <v>0.2651214366240566</v>
+        <v>0.28898591153051</v>
       </c>
       <c r="H13">
-        <v>0.1141268348199702</v>
+        <v>0.1140624491103779</v>
       </c>
       <c r="I13">
-        <v>0.003226429845931023</v>
+        <v>0.003536821308141924</v>
       </c>
       <c r="J13">
-        <v>0.2456878457857741</v>
+        <v>0.2136644677679449</v>
       </c>
       <c r="K13">
-        <v>0.2012061462487829</v>
+        <v>0.1813900535936206</v>
       </c>
       <c r="L13">
-        <v>0.1745302064709975</v>
+        <v>0.09871480961756163</v>
       </c>
       <c r="M13">
-        <v>1.471728214859525</v>
+        <v>0.05002020356554127</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.173769555258076</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.454061201268502</v>
       </c>
       <c r="P13">
-        <v>0.7402279476013049</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.025400050918734</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0.7665440052022632</v>
+      </c>
+      <c r="S13">
+        <v>0.9331909696955307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.311923135689739</v>
+        <v>1.260036933856071</v>
       </c>
       <c r="C14">
-        <v>0.2236632573273454</v>
+        <v>0.2373323963783633</v>
       </c>
       <c r="D14">
-        <v>0.2747543656177669</v>
+        <v>0.285249724497092</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5356774193793257</v>
+        <v>0.5038016414439141</v>
       </c>
       <c r="G14">
-        <v>0.2464622765708029</v>
+        <v>0.2606905527201491</v>
       </c>
       <c r="H14">
-        <v>0.1631760870195791</v>
+        <v>0.1631307829145925</v>
       </c>
       <c r="I14">
-        <v>0.003017660840676228</v>
+        <v>0.0033642244209382</v>
       </c>
       <c r="J14">
-        <v>0.236911581265133</v>
+        <v>0.2158527005829747</v>
       </c>
       <c r="K14">
-        <v>0.1944627195247826</v>
+        <v>0.1770533647983967</v>
       </c>
       <c r="L14">
-        <v>0.1102793809434104</v>
+        <v>0.09772186319502563</v>
       </c>
       <c r="M14">
-        <v>1.421549501427592</v>
+        <v>0.04728228626179032</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1096975383911811</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.406944802244453</v>
       </c>
       <c r="P14">
-        <v>0.7564255022086002</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.9674062024117944</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0.7809173319909348</v>
+      </c>
+      <c r="S14">
+        <v>0.8888062396706005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.293115277133893</v>
+        <v>1.243683798760628</v>
       </c>
       <c r="C15">
-        <v>0.220197948544282</v>
+        <v>0.2335816667830386</v>
       </c>
       <c r="D15">
-        <v>0.2587390987466875</v>
+        <v>0.2683367864817114</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5211680301980834</v>
+        <v>0.4916923157639488</v>
       </c>
       <c r="G15">
-        <v>0.2414337515838696</v>
+        <v>0.2506509249238604</v>
       </c>
       <c r="H15">
-        <v>0.1755748366897194</v>
+        <v>0.175537075958573</v>
       </c>
       <c r="I15">
-        <v>0.003015644791237726</v>
+        <v>0.00339853047435934</v>
       </c>
       <c r="J15">
-        <v>0.2347985974454616</v>
+        <v>0.218776846373963</v>
       </c>
       <c r="K15">
-        <v>0.1929834896610885</v>
+        <v>0.1764234698766423</v>
       </c>
       <c r="L15">
-        <v>0.09749657185833271</v>
+        <v>0.09775235193213394</v>
       </c>
       <c r="M15">
-        <v>1.400370290051683</v>
+        <v>0.04652971245212711</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.09698634628255931</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.387498436376603</v>
       </c>
       <c r="P15">
-        <v>0.7615104600532803</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.9522902908532274</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0.7846076558233293</v>
+      </c>
+      <c r="S15">
+        <v>0.8791284280386691</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.212386453817487</v>
+        <v>1.171827029930085</v>
       </c>
       <c r="C16">
-        <v>0.2089150278135747</v>
+        <v>0.22259499018746</v>
       </c>
       <c r="D16">
-        <v>0.2474532966740099</v>
+        <v>0.254515271127417</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5131650486205999</v>
+        <v>0.4912985961109513</v>
       </c>
       <c r="G16">
-        <v>0.2390387663907205</v>
+        <v>0.2265900908577336</v>
       </c>
       <c r="H16">
-        <v>0.1623622752871228</v>
+        <v>0.1623508300537111</v>
       </c>
       <c r="I16">
-        <v>0.002630465832821116</v>
+        <v>0.003078545973578706</v>
       </c>
       <c r="J16">
-        <v>0.2363296791864471</v>
+        <v>0.2423536519035636</v>
       </c>
       <c r="K16">
-        <v>0.196226210105543</v>
+        <v>0.1818153161372038</v>
       </c>
       <c r="L16">
-        <v>0.09662218686991508</v>
+        <v>0.1009333558183059</v>
       </c>
       <c r="M16">
-        <v>1.315357973944231</v>
+        <v>0.04624158581443005</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.09639613571455996</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.310603335177603</v>
       </c>
       <c r="P16">
-        <v>0.768054759399611</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.9502600170651476</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.7830820604166959</v>
+      </c>
+      <c r="S16">
+        <v>0.8952165464045834</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.171146780218152</v>
+        <v>1.133696035997644</v>
       </c>
       <c r="C17">
-        <v>0.2061473924007231</v>
+        <v>0.2205149109598636</v>
       </c>
       <c r="D17">
-        <v>0.2714266232076596</v>
+        <v>0.2779184912963899</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.5360044677498976</v>
+        <v>0.5163006823390646</v>
       </c>
       <c r="G17">
-        <v>0.2470281573347819</v>
+        <v>0.2254206539658341</v>
       </c>
       <c r="H17">
-        <v>0.1243622796459931</v>
+        <v>0.1243587647135058</v>
       </c>
       <c r="I17">
-        <v>0.002475095579667297</v>
+        <v>0.002951259758749991</v>
       </c>
       <c r="J17">
-        <v>0.2421637460267831</v>
+        <v>0.2584151192549626</v>
       </c>
       <c r="K17">
-        <v>0.2022766996125718</v>
+        <v>0.1881501329420399</v>
       </c>
       <c r="L17">
-        <v>0.1258380050065142</v>
+        <v>0.1040826116474598</v>
       </c>
       <c r="M17">
-        <v>1.276791011047294</v>
+        <v>0.04731132121628256</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1257461485273481</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.27553173273725</v>
       </c>
       <c r="P17">
-        <v>0.7647171070332917</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.9793231354409642</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.7756729035351242</v>
+      </c>
+      <c r="S17">
+        <v>0.9297637210106728</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.160804021318654</v>
+        <v>1.122746926916108</v>
       </c>
       <c r="C18">
-        <v>0.209434572225021</v>
+        <v>0.2254391854598339</v>
       </c>
       <c r="D18">
-        <v>0.3330593033233384</v>
+        <v>0.3401280440010623</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5907731815929793</v>
+        <v>0.5701335534254071</v>
       </c>
       <c r="G18">
-        <v>0.2658042017793392</v>
+        <v>0.239169095279081</v>
       </c>
       <c r="H18">
-        <v>0.07153987555405905</v>
+        <v>0.07153804180342149</v>
       </c>
       <c r="I18">
-        <v>0.002205313572518186</v>
+        <v>0.002641604341053316</v>
       </c>
       <c r="J18">
-        <v>0.252767682140572</v>
+        <v>0.2731360737737916</v>
       </c>
       <c r="K18">
-        <v>0.212073487193015</v>
+        <v>0.1969979027396409</v>
       </c>
       <c r="L18">
-        <v>0.2044292691402134</v>
+        <v>0.1079359579918258</v>
       </c>
       <c r="M18">
-        <v>1.273430166270373</v>
+        <v>0.0499157870850766</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.2043806967150275</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.273751470026127</v>
       </c>
       <c r="P18">
-        <v>0.7527610872686452</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.041294595042118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.76147091627886</v>
+      </c>
+      <c r="S18">
+        <v>0.9901560263471225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.171962001522076</v>
+        <v>1.130759191265781</v>
       </c>
       <c r="C19">
-        <v>0.2197853089748634</v>
+        <v>0.2385472983270773</v>
       </c>
       <c r="D19">
-        <v>0.4289375848573229</v>
+        <v>0.4374098326823059</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6689856229925581</v>
+        <v>0.6453310222869817</v>
       </c>
       <c r="G19">
-        <v>0.2912651099455914</v>
+        <v>0.2614413578242178</v>
       </c>
       <c r="H19">
-        <v>0.02657964109898359</v>
+        <v>0.02657545549889306</v>
       </c>
       <c r="I19">
-        <v>0.002378485483099269</v>
+        <v>0.002838040113156914</v>
       </c>
       <c r="J19">
-        <v>0.2659771462579101</v>
+        <v>0.2868920312306855</v>
       </c>
       <c r="K19">
-        <v>0.2234753021090832</v>
+        <v>0.2066830935228037</v>
       </c>
       <c r="L19">
-        <v>0.3477509665611223</v>
+        <v>0.1118369118584184</v>
       </c>
       <c r="M19">
-        <v>1.298859094108593</v>
+        <v>0.05334358619569279</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.347664866628719</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.299770879183285</v>
       </c>
       <c r="P19">
-        <v>0.7373099961129839</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.122941778491438</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.7449209867713122</v>
+      </c>
+      <c r="S19">
+        <v>1.065753192768241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.2506303257517</v>
+        <v>1.199231712492747</v>
       </c>
       <c r="C20">
-        <v>0.245722179925977</v>
+        <v>0.2701373965614664</v>
       </c>
       <c r="D20">
-        <v>0.6165812873665004</v>
+        <v>0.6290939504944504</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.8136800689941168</v>
+        <v>0.7805121026295367</v>
       </c>
       <c r="G20">
-        <v>0.3371259700800735</v>
+        <v>0.3100224445205129</v>
       </c>
       <c r="H20">
-        <v>0.001756450407181198</v>
+        <v>0.001721735095637555</v>
       </c>
       <c r="I20">
-        <v>0.002889241263501319</v>
+        <v>0.003335343528254597</v>
       </c>
       <c r="J20">
-        <v>0.2873057474856893</v>
+        <v>0.2971898131673285</v>
       </c>
       <c r="K20">
-        <v>0.2407950088789903</v>
+        <v>0.2198047970386696</v>
       </c>
       <c r="L20">
-        <v>0.6642307958291696</v>
+        <v>0.1157176900250132</v>
       </c>
       <c r="M20">
-        <v>1.404291770487788</v>
+        <v>0.06003910951265645</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.663800610858857</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.403240304644839</v>
       </c>
       <c r="P20">
-        <v>0.7089410821253708</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.264970038376219</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.7175999264497861</v>
+      </c>
+      <c r="S20">
+        <v>1.188071904048144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.409677289922342</v>
+        <v>1.338426978312498</v>
       </c>
       <c r="C21">
-        <v>0.2743704698787184</v>
+        <v>0.2990508247945911</v>
       </c>
       <c r="D21">
-        <v>0.7028769373308137</v>
+        <v>0.7245850993314491</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.8795532196478462</v>
+        <v>0.8227616173013956</v>
       </c>
       <c r="G21">
-        <v>0.3577140706405686</v>
+        <v>0.3864028717594152</v>
       </c>
       <c r="H21">
-        <v>0.003326389370048033</v>
+        <v>0.003176626166175422</v>
       </c>
       <c r="I21">
-        <v>0.00398071409575973</v>
+        <v>0.00429449978335672</v>
       </c>
       <c r="J21">
-        <v>0.2925066865871173</v>
+        <v>0.239619110376708</v>
       </c>
       <c r="K21">
-        <v>0.2414939084517016</v>
+        <v>0.2132544845567708</v>
       </c>
       <c r="L21">
-        <v>0.7686254811835909</v>
+        <v>0.1095920626520748</v>
       </c>
       <c r="M21">
-        <v>1.581748486720471</v>
+        <v>0.06336979514451713</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.7672543592613152</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.56352249170331</v>
       </c>
       <c r="P21">
-        <v>0.6851229192865489</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.319804561402606</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.705130021598606</v>
+      </c>
+      <c r="S21">
+        <v>1.191292083508856</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.514510644132116</v>
+        <v>1.429679903138634</v>
       </c>
       <c r="C22">
-        <v>0.2907781356280452</v>
+        <v>0.3148542016529916</v>
       </c>
       <c r="D22">
-        <v>0.7501728051384191</v>
+        <v>0.7783955594453289</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.9180993926031249</v>
+        <v>0.8446479336021753</v>
       </c>
       <c r="G22">
-        <v>0.3705857329333639</v>
+        <v>0.444177545917114</v>
       </c>
       <c r="H22">
-        <v>0.004601747277087953</v>
+        <v>0.004351568941676431</v>
       </c>
       <c r="I22">
-        <v>0.004550286586946228</v>
+        <v>0.00467573332698823</v>
       </c>
       <c r="J22">
-        <v>0.2956841559377352</v>
+        <v>0.2081742304444916</v>
       </c>
       <c r="K22">
-        <v>0.2421424736927271</v>
+        <v>0.2088327620352644</v>
       </c>
       <c r="L22">
-        <v>0.8202973580874726</v>
+        <v>0.105751210982687</v>
       </c>
       <c r="M22">
-        <v>1.694955443217083</v>
+        <v>0.06570497928444041</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.8183031314979843</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.664094092898239</v>
       </c>
       <c r="P22">
-        <v>0.670549811753645</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.353932078996678</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.6987458073145163</v>
+      </c>
+      <c r="S22">
+        <v>1.188981233891809</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.461128294717241</v>
+        <v>1.384460429878573</v>
       </c>
       <c r="C23">
-        <v>0.2804961892058202</v>
+        <v>0.3055488446179879</v>
       </c>
       <c r="D23">
-        <v>0.724391555435659</v>
+        <v>0.7483004015010977</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.8988751701688926</v>
+        <v>0.8363298537913124</v>
       </c>
       <c r="G23">
-        <v>0.3646930908134323</v>
+        <v>0.4067911640309063</v>
       </c>
       <c r="H23">
-        <v>0.003901658694140497</v>
+        <v>0.003712230832977115</v>
       </c>
       <c r="I23">
-        <v>0.003951789542893103</v>
+        <v>0.004123773784357354</v>
       </c>
       <c r="J23">
-        <v>0.2944852558606641</v>
+        <v>0.2294565849359458</v>
       </c>
       <c r="K23">
-        <v>0.2425844773468491</v>
+        <v>0.2124556947169758</v>
       </c>
       <c r="L23">
-        <v>0.7927373878096518</v>
+        <v>0.1081878186600562</v>
       </c>
       <c r="M23">
-        <v>1.634370522582429</v>
+        <v>0.06499330801766945</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.7911181764476254</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.612196774831972</v>
       </c>
       <c r="P23">
-        <v>0.6777175222242988</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.338830527810558</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.7005881346683509</v>
+      </c>
+      <c r="S23">
+        <v>1.197668524083554</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.254396747795994</v>
+        <v>1.202737745934854</v>
       </c>
       <c r="C24">
-        <v>0.2443155701653694</v>
+        <v>0.2688178144440911</v>
       </c>
       <c r="D24">
-        <v>0.6279370707004261</v>
+        <v>0.6405593656748181</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.8249757639609641</v>
+        <v>0.7915317061396863</v>
       </c>
       <c r="G24">
-        <v>0.3415715259379724</v>
+        <v>0.3137769963179551</v>
       </c>
       <c r="H24">
-        <v>0.001728530517486782</v>
+        <v>0.001692768498121833</v>
       </c>
       <c r="I24">
-        <v>0.002434724173625114</v>
+        <v>0.002781079326330982</v>
       </c>
       <c r="J24">
-        <v>0.2896124862237386</v>
+        <v>0.299901941234836</v>
       </c>
       <c r="K24">
-        <v>0.243429498414951</v>
+        <v>0.2221644443272908</v>
       </c>
       <c r="L24">
-        <v>0.6885320661274648</v>
+        <v>0.1166542306177138</v>
       </c>
       <c r="M24">
-        <v>1.405259390578436</v>
+        <v>0.06088019477637552</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.6880958467247353</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.404364213506284</v>
       </c>
       <c r="P24">
-        <v>0.7070298709424243</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.279224530148767</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.7152494883270606</v>
+      </c>
+      <c r="S24">
+        <v>1.20170904019156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.030589638341269</v>
+        <v>0.9948718543652149</v>
       </c>
       <c r="C25">
-        <v>0.2057754943109131</v>
+        <v>0.2214936182208618</v>
       </c>
       <c r="D25">
-        <v>0.5244578802050626</v>
+        <v>0.5337583802237305</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.7475935113386569</v>
+        <v>0.7227208362180733</v>
       </c>
       <c r="G25">
-        <v>0.3183040891648474</v>
+        <v>0.2892774026642755</v>
       </c>
       <c r="H25">
-        <v>0.0003223152003291041</v>
+        <v>0.0003321973204764017</v>
       </c>
       <c r="I25">
-        <v>0.001416093428409759</v>
+        <v>0.001780145436952374</v>
       </c>
       <c r="J25">
-        <v>0.2853955738720444</v>
+        <v>0.3028474537256827</v>
       </c>
       <c r="K25">
-        <v>0.2453400407033577</v>
+        <v>0.2270564693719344</v>
       </c>
       <c r="L25">
-        <v>0.5764372233061579</v>
+        <v>0.1244101297244793</v>
       </c>
       <c r="M25">
-        <v>1.158113473157215</v>
+        <v>0.05543502607961415</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.5766988080250997</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.158878690702892</v>
       </c>
       <c r="P25">
-        <v>0.7411312501750196</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.220628562614849</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.74166133976194</v>
+      </c>
+      <c r="S25">
+        <v>1.160662206341513</v>
       </c>
     </row>
   </sheetData>
